--- a/Enslaved/Wikibase/Axiomatization/Results/Enslaved_Wiki_Axioms.txt_cq_GPT4o_results.xlsx
+++ b/Enslaved/Wikibase/Axiomatization/Results/Enslaved_Wiki_Axioms.txt_cq_GPT4o_results.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisdavisj/graph-rag-iswc-2025/Enslaved/Wikibase/Axiomatization/Results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A2A219-E9EF-9040-B5D2-7B675CE559D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>CQ</t>
   </si>
@@ -32,6 +23,12 @@
   </si>
   <si>
     <t>GPT4o_Raw</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
   <si>
     <t>What are all the enslaved people in County X in the century X?</t>
@@ -193,6 +190,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - minor SPARQL structure issues
+ - missing a prefix wb
+ - mostly looks like its exploring right realtionships with a lil sparql structure clearning, will answer the CQ</t>
+  </si>
+  <si>
     <t>What are all the enslaved individuals categorized by gender, ethnicity, and location (e.g., on plantation X or of XXXX ethnicity)?</t>
   </si>
   <si>
@@ -347,6 +349,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - has excess information which might not return anything but still adequately functions and can answer the CQ</t>
+  </si>
+  <si>
     <t>What are all the available population counts of enslaved people by place and year?</t>
   </si>
   <si>
@@ -501,6 +507,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - almost Valid SPARQL
+ - halucinated a bit on relationship the data, even though one of it was correct and rest cant be validated</t>
+  </si>
+  <si>
     <t>What are all the documented literacy statuses of enslaved individuals?</t>
   </si>
   <si>
@@ -651,6 +661,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - halucinated on literaly status relationship so it doesnt give data for that but still retireves data for individuals, minimally can give information to asnwer a CQ, if corrected</t>
+  </si>
+  <si>
     <t>What are all the geographical places associated with enslaved people and their relationships to those places?</t>
   </si>
   <si>
@@ -804,6 +818,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - Misses a prefix but still retrives all the data to answer the CQ</t>
+  </si>
+  <si>
     <t>What are all the common names of enslaved children during the Revolutionary War era?</t>
   </si>
   <si>
@@ -962,6 +980,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - Misses a prefix but still retrives all the data to answer the CQ
+ - implicitly handles temporal extent properties which were not given as well</t>
+  </si>
+  <si>
     <t>What are all the enslaved individuals and who enslaved them, including locations?</t>
   </si>
   <si>
@@ -1118,6 +1141,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - Misses a prefix but still retrives data
+ - location was handled optionally to make sure it retirves only if it exists which perfectly workd for our situstion to answerr the CQ</t>
+  </si>
+  <si>
     <t>Who are all the children associated with enslaved individuals?</t>
   </si>
   <si>
@@ -1269,6 +1297,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - MIsses a prefix but still retrives data
+ - if corrected can adequaltely answer the CQ</t>
+  </si>
+  <si>
     <t>What are all the available records about individuals identified as enslaved or formerly enslaved in specific locations and periods?</t>
   </si>
   <si>
@@ -1423,6 +1456,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPAQRL
+ - correctly types relationships
+ - might not have data for some but still functions mostly right to answer the cq</t>
+  </si>
+  <si>
     <t>What are all the enslaved children recorded in specific locations and time periods?</t>
   </si>
   <si>
@@ -1577,6 +1615,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - missing a prefix
+ - slight representation conflict between wd and wb, if correced can adequaltely answer the CQ</t>
+  </si>
+  <si>
     <t>What are all the enslaved people associated with a specific owner in a specific place and time, and how many were there?</t>
   </si>
   <si>
@@ -1734,6 +1777,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - misterpreted wb to wd prefix which doesnt apply for owner filtering 
+ - has minor issues which can be fixed in ohter parts but all together, too much work</t>
+  </si>
+  <si>
     <t>What are all the enslaved individuals who contributed labor to construction projects, such as the state capitol, and what were their roles?</t>
   </si>
   <si>
@@ -1890,6 +1938,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - minor issues sith event hasName relationship, which doesnt exist directly in schema but still funtional
+ - if fized, can answer the CQ</t>
+  </si>
+  <si>
     <t>What are all the known addresses or properties that were inhabited by enslaved individuals?</t>
   </si>
   <si>
@@ -2042,6 +2095,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - event halucinated on hasNameStrucutre relationship
+ - doesnt asnwer CQ even remotely, needs a redo all over</t>
+  </si>
+  <si>
     <t>What are all the enslaved individuals transported from specific ports and their demographic breakdowns over time?</t>
   </si>
   <si>
@@ -2197,6 +2255,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPAQRL
+ - almost correct relationship chainging.
+ - adjusting minor fixes will adequately answer the CQ</t>
+  </si>
+  <si>
     <t>What are all the known slave rebellions, their participants, locations, and dates?</t>
   </si>
   <si>
@@ -2348,6 +2411,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - invalid relationship and class type
+ - requires major redo and schema knowledge to fix it to answer cq</t>
+  </si>
+  <si>
     <t>What are all the known relatives of enslaved individuals, including their relationships and locations?</t>
   </si>
   <si>
@@ -2501,6 +2568,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - minor issies with cirrect prefix use for classes
+ - if fixed, can answer the CQ</t>
+  </si>
+  <si>
     <t>What are all the median ages of enslaved individuals who escaped in location X during time period X?</t>
   </si>
   <si>
@@ -2658,6 +2730,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - correctly uses aggregate and filter functions to answer the CQ
+ - misses a prefix declaration</t>
+  </si>
+  <si>
     <t>What are all the average ages at death of enslaved individuals?</t>
   </si>
   <si>
@@ -2808,6 +2885,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - uses correct relationships but doesnt necesarily answer CQ as schema doesnt have that data</t>
+  </si>
+  <si>
     <t>What are all the documented skill categories associated with enslaved individuals, broken down by ethnic group, and their percentages?</t>
   </si>
   <si>
@@ -2967,6 +3048,10 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - minor SPARQL structure issues
+ - mostly looks like its exploring right realtionships with a lil sparql structure clearning, will answer the CQ</t>
+  </si>
+  <si>
     <t>What are all the recorded marriage events between enslaved individuals, categorized by same or different ethnic groupings, and their percentages?</t>
   </si>
   <si>
@@ -3134,6 +3219,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Invalid SPARQL Query
+ - halucinated properties like hasEthnicity, Class etc
+ - reqiures major redo and knowledge of schema to fix</t>
+  </si>
+  <si>
     <t>What are all the known economic values assigned to enslaved individuals, categorized by ethnicity, skills, gender, and period?</t>
   </si>
   <si>
@@ -3293,6 +3383,12 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - uses almost collect relationships
+ - doesnt have grouping in query
+ - with minor fixes, can answer the cq</t>
+  </si>
+  <si>
     <t>What are all the life outcomes (e.g., sale, manumission, death) of enslaved individuals disembarked from ship XXX?</t>
   </si>
   <si>
@@ -3445,6 +3541,11 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Valid SPARQL
+ - almost correct use of relationships
+ - might not necessarily answer the CQ as schema might not have that data</t>
+  </si>
+  <si>
     <t>What are all the enslaved individuals who lived in location X in the time period XXX?</t>
   </si>
   <si>
@@ -3604,6 +3705,12 @@
 }</t>
   </si>
   <si>
+    <t xml:space="preserve"> - almost Valid SPARQL
+ - incorrect use of relationships (used inverses and duplicates)
+ - halucinated a bit on Class
+ - rquires alot of manual inspection to fix</t>
+  </si>
+  <si>
     <t>What are all the enslaved individuals who were later recorded as slave owners, including details of their ownership activities?</t>
   </si>
   <si>
@@ -3757,36 +3864,36 @@
 }</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t xml:space="preserve"> - Valid SPARQL
+ - Halucinated Classes
+ - Requires alot fo effort to check and fix to answer CQ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3795,77 +3902,80 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+  <cellXfs count="9">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -3889,77 +3999,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3971,184 +4023,155 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="4" width="58.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42" customWidth="1"/>
+    <col customWidth="1" min="1" max="4" width="58.71"/>
+    <col customWidth="1" min="5" max="5" width="8.86"/>
+    <col customWidth="1" min="6" max="6" width="63.57"/>
+    <col customWidth="1" min="7" max="26" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4161,350 +4184,7322 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="300.0" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="300.0" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="300.0" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="300.0" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="300.0" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="300.0" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="300.0" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="300.0" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="300.0" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="300.0" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" ht="300.0" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" ht="300.0" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" ht="300.0" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" ht="300.0" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" ht="300.0" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" ht="300.0" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" ht="300.0" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" ht="300.0" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" ht="300.0" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="21" ht="300.0" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" ht="300.0" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" ht="300.0" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" ht="300.0" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" ht="300.0" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="F130" s="8"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="F139" s="8"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="F141" s="8"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="F145" s="8"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="F146" s="8"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="F147" s="8"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="F148" s="8"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="F149" s="8"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="F150" s="8"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="F151" s="8"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="F152" s="8"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="F153" s="8"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="F154" s="8"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="F155" s="8"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="F156" s="8"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="F157" s="8"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="F158" s="8"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="F159" s="8"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="F160" s="8"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="F161" s="8"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="F162" s="8"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="F163" s="8"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="F164" s="8"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="F165" s="8"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="F166" s="8"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="F167" s="8"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="F168" s="8"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="F169" s="8"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="F170" s="8"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="F171" s="8"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="F172" s="8"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="F173" s="8"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="F174" s="8"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="F175" s="8"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="F176" s="8"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="F177" s="8"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="F178" s="8"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="F179" s="8"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="F180" s="8"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="F181" s="8"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="F182" s="8"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="F184" s="8"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="F185" s="8"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="F186" s="8"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="F187" s="8"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="F188" s="8"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="F189" s="8"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="F190" s="8"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="F191" s="8"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="F192" s="8"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="F193" s="8"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="F194" s="8"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="F195" s="8"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="F196" s="8"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="F197" s="8"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="F198" s="8"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="F199" s="8"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="F200" s="8"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="F201" s="8"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="F202" s="8"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="F203" s="8"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="F204" s="8"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="F205" s="8"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="F206" s="8"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="F207" s="8"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="F208" s="8"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="F209" s="8"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="F210" s="8"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="F211" s="8"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="F212" s="8"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="F213" s="8"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="F214" s="8"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="F215" s="8"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="F216" s="8"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="F217" s="8"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="F218" s="8"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="F219" s="8"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="F220" s="8"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="F221" s="8"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="F222" s="8"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="F223" s="8"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="F224" s="8"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="F225" s="8"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="F226" s="8"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="F227" s="8"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="F228" s="8"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="F229" s="8"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="F230" s="8"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="F231" s="8"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="F232" s="8"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="F233" s="8"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="F234" s="8"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="F235" s="8"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="F236" s="8"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="F237" s="8"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="F238" s="8"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="F239" s="8"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="4"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="F240" s="8"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="F241" s="8"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="F242" s="8"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="F243" s="8"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="F244" s="8"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="F245" s="8"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="F246" s="8"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="F247" s="8"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="F248" s="8"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="F249" s="8"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="F250" s="8"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="F251" s="8"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="F252" s="8"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="F253" s="8"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="F254" s="8"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="F255" s="8"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="F256" s="8"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="F257" s="8"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="F258" s="8"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="F259" s="8"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="F260" s="8"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="F261" s="8"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="F262" s="8"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="F263" s="8"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="F264" s="8"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="F265" s="8"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="F266" s="8"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="F267" s="8"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="F268" s="8"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="F269" s="8"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+      <c r="F270" s="8"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="F271" s="8"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="F272" s="8"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="F273" s="8"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="4"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+      <c r="F274" s="8"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="F275" s="8"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="F276" s="8"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="F277" s="8"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="F278" s="8"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+      <c r="F279" s="8"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+      <c r="F280" s="8"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="F281" s="8"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="F282" s="8"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="F283" s="8"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="F284" s="8"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="F285" s="8"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="F286" s="8"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="F287" s="8"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="F288" s="8"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="F289" s="8"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="A290" s="4"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="F290" s="8"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="F291" s="8"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="F292" s="8"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="A293" s="4"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+      <c r="F293" s="8"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="4"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4"/>
+      <c r="F294" s="8"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="A295" s="4"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="F295" s="8"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="A296" s="4"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+      <c r="F296" s="8"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="A297" s="4"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="F297" s="8"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+      <c r="F298" s="8"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="F299" s="8"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="A300" s="4"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="F300" s="8"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="A301" s="4"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+      <c r="F301" s="8"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="A302" s="4"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+      <c r="F302" s="8"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="A303" s="4"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+      <c r="F303" s="8"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="A304" s="4"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+      <c r="F304" s="8"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="A305" s="4"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+      <c r="F305" s="8"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="A306" s="4"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+      <c r="F306" s="8"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="F307" s="8"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="A308" s="4"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="F308" s="8"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="F309" s="8"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="A310" s="4"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="F310" s="8"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="A311" s="4"/>
+      <c r="B311" s="4"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="F311" s="8"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="A312" s="4"/>
+      <c r="B312" s="4"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="F312" s="8"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="A313" s="4"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="F313" s="8"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="A314" s="4"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+      <c r="F314" s="8"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="A315" s="4"/>
+      <c r="B315" s="4"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="F315" s="8"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="A316" s="4"/>
+      <c r="B316" s="4"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="F316" s="8"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="A317" s="4"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="F317" s="8"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="A318" s="4"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+      <c r="F318" s="8"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="A319" s="4"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+      <c r="F319" s="8"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="A320" s="4"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+      <c r="F320" s="8"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="A321" s="4"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="F321" s="8"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="A322" s="4"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="F322" s="8"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="F323" s="8"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="F324" s="8"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="4"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="F325" s="8"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="4"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4"/>
+      <c r="F326" s="8"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="4"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+      <c r="F327" s="8"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="F328" s="8"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="F329" s="8"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="F330" s="8"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="F331" s="8"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="A332" s="4"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+      <c r="F332" s="8"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="4"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+      <c r="F333" s="8"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="A334" s="4"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+      <c r="F334" s="8"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="A335" s="4"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="F335" s="8"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="A336" s="4"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="F336" s="8"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="A337" s="4"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="F337" s="8"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="A338" s="4"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="F338" s="8"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="A339" s="4"/>
+      <c r="B339" s="4"/>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="F339" s="8"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="A340" s="4"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+      <c r="F340" s="8"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="A341" s="4"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="F341" s="8"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="A342" s="4"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="F342" s="8"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="A343" s="4"/>
+      <c r="B343" s="4"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="F343" s="8"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="A344" s="4"/>
+      <c r="B344" s="4"/>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4"/>
+      <c r="F344" s="8"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="A345" s="4"/>
+      <c r="B345" s="4"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="F345" s="8"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="A346" s="4"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="F346" s="8"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="A347" s="4"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="F347" s="8"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="A348" s="4"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="F348" s="8"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="A349" s="4"/>
+      <c r="B349" s="4"/>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+      <c r="F349" s="8"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="A350" s="4"/>
+      <c r="B350" s="4"/>
+      <c r="C350" s="4"/>
+      <c r="D350" s="4"/>
+      <c r="F350" s="8"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="A351" s="4"/>
+      <c r="B351" s="4"/>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+      <c r="F351" s="8"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="A352" s="4"/>
+      <c r="B352" s="4"/>
+      <c r="C352" s="4"/>
+      <c r="D352" s="4"/>
+      <c r="F352" s="8"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="A353" s="4"/>
+      <c r="B353" s="4"/>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+      <c r="F353" s="8"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="A354" s="4"/>
+      <c r="B354" s="4"/>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+      <c r="F354" s="8"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="A355" s="4"/>
+      <c r="B355" s="4"/>
+      <c r="C355" s="4"/>
+      <c r="D355" s="4"/>
+      <c r="F355" s="8"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="A356" s="4"/>
+      <c r="B356" s="4"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+      <c r="F356" s="8"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="A357" s="4"/>
+      <c r="B357" s="4"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+      <c r="F357" s="8"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="A358" s="4"/>
+      <c r="B358" s="4"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+      <c r="F358" s="8"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="A359" s="4"/>
+      <c r="B359" s="4"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+      <c r="F359" s="8"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="A360" s="4"/>
+      <c r="B360" s="4"/>
+      <c r="C360" s="4"/>
+      <c r="D360" s="4"/>
+      <c r="F360" s="8"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="A361" s="4"/>
+      <c r="B361" s="4"/>
+      <c r="C361" s="4"/>
+      <c r="D361" s="4"/>
+      <c r="F361" s="8"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="A362" s="4"/>
+      <c r="B362" s="4"/>
+      <c r="C362" s="4"/>
+      <c r="D362" s="4"/>
+      <c r="F362" s="8"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="A363" s="4"/>
+      <c r="B363" s="4"/>
+      <c r="C363" s="4"/>
+      <c r="D363" s="4"/>
+      <c r="F363" s="8"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="A364" s="4"/>
+      <c r="B364" s="4"/>
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+      <c r="F364" s="8"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="A365" s="4"/>
+      <c r="B365" s="4"/>
+      <c r="C365" s="4"/>
+      <c r="D365" s="4"/>
+      <c r="F365" s="8"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="A366" s="4"/>
+      <c r="B366" s="4"/>
+      <c r="C366" s="4"/>
+      <c r="D366" s="4"/>
+      <c r="F366" s="8"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="A367" s="4"/>
+      <c r="B367" s="4"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+      <c r="F367" s="8"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="A368" s="4"/>
+      <c r="B368" s="4"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4"/>
+      <c r="F368" s="8"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="A369" s="4"/>
+      <c r="B369" s="4"/>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+      <c r="F369" s="8"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="A370" s="4"/>
+      <c r="B370" s="4"/>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+      <c r="F370" s="8"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="A371" s="4"/>
+      <c r="B371" s="4"/>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+      <c r="F371" s="8"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="A372" s="4"/>
+      <c r="B372" s="4"/>
+      <c r="C372" s="4"/>
+      <c r="D372" s="4"/>
+      <c r="F372" s="8"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="A373" s="4"/>
+      <c r="B373" s="4"/>
+      <c r="C373" s="4"/>
+      <c r="D373" s="4"/>
+      <c r="F373" s="8"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="A374" s="4"/>
+      <c r="B374" s="4"/>
+      <c r="C374" s="4"/>
+      <c r="D374" s="4"/>
+      <c r="F374" s="8"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="A375" s="4"/>
+      <c r="B375" s="4"/>
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+      <c r="F375" s="8"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="A376" s="4"/>
+      <c r="B376" s="4"/>
+      <c r="C376" s="4"/>
+      <c r="D376" s="4"/>
+      <c r="F376" s="8"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="A377" s="4"/>
+      <c r="B377" s="4"/>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4"/>
+      <c r="F377" s="8"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="A378" s="4"/>
+      <c r="B378" s="4"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4"/>
+      <c r="F378" s="8"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="A379" s="4"/>
+      <c r="B379" s="4"/>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4"/>
+      <c r="F379" s="8"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="A380" s="4"/>
+      <c r="B380" s="4"/>
+      <c r="C380" s="4"/>
+      <c r="D380" s="4"/>
+      <c r="F380" s="8"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="A381" s="4"/>
+      <c r="B381" s="4"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+      <c r="F381" s="8"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="A382" s="4"/>
+      <c r="B382" s="4"/>
+      <c r="C382" s="4"/>
+      <c r="D382" s="4"/>
+      <c r="F382" s="8"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="A383" s="4"/>
+      <c r="B383" s="4"/>
+      <c r="C383" s="4"/>
+      <c r="D383" s="4"/>
+      <c r="F383" s="8"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="A384" s="4"/>
+      <c r="B384" s="4"/>
+      <c r="C384" s="4"/>
+      <c r="D384" s="4"/>
+      <c r="F384" s="8"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="A385" s="4"/>
+      <c r="B385" s="4"/>
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
+      <c r="F385" s="8"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="A386" s="4"/>
+      <c r="B386" s="4"/>
+      <c r="C386" s="4"/>
+      <c r="D386" s="4"/>
+      <c r="F386" s="8"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="A387" s="4"/>
+      <c r="B387" s="4"/>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+      <c r="F387" s="8"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="A388" s="4"/>
+      <c r="B388" s="4"/>
+      <c r="C388" s="4"/>
+      <c r="D388" s="4"/>
+      <c r="F388" s="8"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="A389" s="4"/>
+      <c r="B389" s="4"/>
+      <c r="C389" s="4"/>
+      <c r="D389" s="4"/>
+      <c r="F389" s="8"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="A390" s="4"/>
+      <c r="B390" s="4"/>
+      <c r="C390" s="4"/>
+      <c r="D390" s="4"/>
+      <c r="F390" s="8"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="A391" s="4"/>
+      <c r="B391" s="4"/>
+      <c r="C391" s="4"/>
+      <c r="D391" s="4"/>
+      <c r="F391" s="8"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="A392" s="4"/>
+      <c r="B392" s="4"/>
+      <c r="C392" s="4"/>
+      <c r="D392" s="4"/>
+      <c r="F392" s="8"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="A393" s="4"/>
+      <c r="B393" s="4"/>
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
+      <c r="F393" s="8"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="A394" s="4"/>
+      <c r="B394" s="4"/>
+      <c r="C394" s="4"/>
+      <c r="D394" s="4"/>
+      <c r="F394" s="8"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="A395" s="4"/>
+      <c r="B395" s="4"/>
+      <c r="C395" s="4"/>
+      <c r="D395" s="4"/>
+      <c r="F395" s="8"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="A396" s="4"/>
+      <c r="B396" s="4"/>
+      <c r="C396" s="4"/>
+      <c r="D396" s="4"/>
+      <c r="F396" s="8"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="A397" s="4"/>
+      <c r="B397" s="4"/>
+      <c r="C397" s="4"/>
+      <c r="D397" s="4"/>
+      <c r="F397" s="8"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="A398" s="4"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="4"/>
+      <c r="D398" s="4"/>
+      <c r="F398" s="8"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="A399" s="4"/>
+      <c r="B399" s="4"/>
+      <c r="C399" s="4"/>
+      <c r="D399" s="4"/>
+      <c r="F399" s="8"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="A400" s="4"/>
+      <c r="B400" s="4"/>
+      <c r="C400" s="4"/>
+      <c r="D400" s="4"/>
+      <c r="F400" s="8"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="A401" s="4"/>
+      <c r="B401" s="4"/>
+      <c r="C401" s="4"/>
+      <c r="D401" s="4"/>
+      <c r="F401" s="8"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="A402" s="4"/>
+      <c r="B402" s="4"/>
+      <c r="C402" s="4"/>
+      <c r="D402" s="4"/>
+      <c r="F402" s="8"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="A403" s="4"/>
+      <c r="B403" s="4"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+      <c r="F403" s="8"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="A404" s="4"/>
+      <c r="B404" s="4"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+      <c r="F404" s="8"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="A405" s="4"/>
+      <c r="B405" s="4"/>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+      <c r="F405" s="8"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="A406" s="4"/>
+      <c r="B406" s="4"/>
+      <c r="C406" s="4"/>
+      <c r="D406" s="4"/>
+      <c r="F406" s="8"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="A407" s="4"/>
+      <c r="B407" s="4"/>
+      <c r="C407" s="4"/>
+      <c r="D407" s="4"/>
+      <c r="F407" s="8"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="A408" s="4"/>
+      <c r="B408" s="4"/>
+      <c r="C408" s="4"/>
+      <c r="D408" s="4"/>
+      <c r="F408" s="8"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="A409" s="4"/>
+      <c r="B409" s="4"/>
+      <c r="C409" s="4"/>
+      <c r="D409" s="4"/>
+      <c r="F409" s="8"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="A410" s="4"/>
+      <c r="B410" s="4"/>
+      <c r="C410" s="4"/>
+      <c r="D410" s="4"/>
+      <c r="F410" s="8"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="A411" s="4"/>
+      <c r="B411" s="4"/>
+      <c r="C411" s="4"/>
+      <c r="D411" s="4"/>
+      <c r="F411" s="8"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="A412" s="4"/>
+      <c r="B412" s="4"/>
+      <c r="C412" s="4"/>
+      <c r="D412" s="4"/>
+      <c r="F412" s="8"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="A413" s="4"/>
+      <c r="B413" s="4"/>
+      <c r="C413" s="4"/>
+      <c r="D413" s="4"/>
+      <c r="F413" s="8"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="A414" s="4"/>
+      <c r="B414" s="4"/>
+      <c r="C414" s="4"/>
+      <c r="D414" s="4"/>
+      <c r="F414" s="8"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="A415" s="4"/>
+      <c r="B415" s="4"/>
+      <c r="C415" s="4"/>
+      <c r="D415" s="4"/>
+      <c r="F415" s="8"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="A416" s="4"/>
+      <c r="B416" s="4"/>
+      <c r="C416" s="4"/>
+      <c r="D416" s="4"/>
+      <c r="F416" s="8"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="A417" s="4"/>
+      <c r="B417" s="4"/>
+      <c r="C417" s="4"/>
+      <c r="D417" s="4"/>
+      <c r="F417" s="8"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="A418" s="4"/>
+      <c r="B418" s="4"/>
+      <c r="C418" s="4"/>
+      <c r="D418" s="4"/>
+      <c r="F418" s="8"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="A419" s="4"/>
+      <c r="B419" s="4"/>
+      <c r="C419" s="4"/>
+      <c r="D419" s="4"/>
+      <c r="F419" s="8"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="A420" s="4"/>
+      <c r="B420" s="4"/>
+      <c r="C420" s="4"/>
+      <c r="D420" s="4"/>
+      <c r="F420" s="8"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="A421" s="4"/>
+      <c r="B421" s="4"/>
+      <c r="C421" s="4"/>
+      <c r="D421" s="4"/>
+      <c r="F421" s="8"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="A422" s="4"/>
+      <c r="B422" s="4"/>
+      <c r="C422" s="4"/>
+      <c r="D422" s="4"/>
+      <c r="F422" s="8"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="A423" s="4"/>
+      <c r="B423" s="4"/>
+      <c r="C423" s="4"/>
+      <c r="D423" s="4"/>
+      <c r="F423" s="8"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="A424" s="4"/>
+      <c r="B424" s="4"/>
+      <c r="C424" s="4"/>
+      <c r="D424" s="4"/>
+      <c r="F424" s="8"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="A425" s="4"/>
+      <c r="B425" s="4"/>
+      <c r="C425" s="4"/>
+      <c r="D425" s="4"/>
+      <c r="F425" s="8"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="A426" s="4"/>
+      <c r="B426" s="4"/>
+      <c r="C426" s="4"/>
+      <c r="D426" s="4"/>
+      <c r="F426" s="8"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="A427" s="4"/>
+      <c r="B427" s="4"/>
+      <c r="C427" s="4"/>
+      <c r="D427" s="4"/>
+      <c r="F427" s="8"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="A428" s="4"/>
+      <c r="B428" s="4"/>
+      <c r="C428" s="4"/>
+      <c r="D428" s="4"/>
+      <c r="F428" s="8"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="A429" s="4"/>
+      <c r="B429" s="4"/>
+      <c r="C429" s="4"/>
+      <c r="D429" s="4"/>
+      <c r="F429" s="8"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="A430" s="4"/>
+      <c r="B430" s="4"/>
+      <c r="C430" s="4"/>
+      <c r="D430" s="4"/>
+      <c r="F430" s="8"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="A431" s="4"/>
+      <c r="B431" s="4"/>
+      <c r="C431" s="4"/>
+      <c r="D431" s="4"/>
+      <c r="F431" s="8"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="A432" s="4"/>
+      <c r="B432" s="4"/>
+      <c r="C432" s="4"/>
+      <c r="D432" s="4"/>
+      <c r="F432" s="8"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="A433" s="4"/>
+      <c r="B433" s="4"/>
+      <c r="C433" s="4"/>
+      <c r="D433" s="4"/>
+      <c r="F433" s="8"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="A434" s="4"/>
+      <c r="B434" s="4"/>
+      <c r="C434" s="4"/>
+      <c r="D434" s="4"/>
+      <c r="F434" s="8"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="A435" s="4"/>
+      <c r="B435" s="4"/>
+      <c r="C435" s="4"/>
+      <c r="D435" s="4"/>
+      <c r="F435" s="8"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="A436" s="4"/>
+      <c r="B436" s="4"/>
+      <c r="C436" s="4"/>
+      <c r="D436" s="4"/>
+      <c r="F436" s="8"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="A437" s="4"/>
+      <c r="B437" s="4"/>
+      <c r="C437" s="4"/>
+      <c r="D437" s="4"/>
+      <c r="F437" s="8"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="A438" s="4"/>
+      <c r="B438" s="4"/>
+      <c r="C438" s="4"/>
+      <c r="D438" s="4"/>
+      <c r="F438" s="8"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="A439" s="4"/>
+      <c r="B439" s="4"/>
+      <c r="C439" s="4"/>
+      <c r="D439" s="4"/>
+      <c r="F439" s="8"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="A440" s="4"/>
+      <c r="B440" s="4"/>
+      <c r="C440" s="4"/>
+      <c r="D440" s="4"/>
+      <c r="F440" s="8"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="A441" s="4"/>
+      <c r="B441" s="4"/>
+      <c r="C441" s="4"/>
+      <c r="D441" s="4"/>
+      <c r="F441" s="8"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="A442" s="4"/>
+      <c r="B442" s="4"/>
+      <c r="C442" s="4"/>
+      <c r="D442" s="4"/>
+      <c r="F442" s="8"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="A443" s="4"/>
+      <c r="B443" s="4"/>
+      <c r="C443" s="4"/>
+      <c r="D443" s="4"/>
+      <c r="F443" s="8"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="A444" s="4"/>
+      <c r="B444" s="4"/>
+      <c r="C444" s="4"/>
+      <c r="D444" s="4"/>
+      <c r="F444" s="8"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="A445" s="4"/>
+      <c r="B445" s="4"/>
+      <c r="C445" s="4"/>
+      <c r="D445" s="4"/>
+      <c r="F445" s="8"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="A446" s="4"/>
+      <c r="B446" s="4"/>
+      <c r="C446" s="4"/>
+      <c r="D446" s="4"/>
+      <c r="F446" s="8"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="A447" s="4"/>
+      <c r="B447" s="4"/>
+      <c r="C447" s="4"/>
+      <c r="D447" s="4"/>
+      <c r="F447" s="8"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="A448" s="4"/>
+      <c r="B448" s="4"/>
+      <c r="C448" s="4"/>
+      <c r="D448" s="4"/>
+      <c r="F448" s="8"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="A449" s="4"/>
+      <c r="B449" s="4"/>
+      <c r="C449" s="4"/>
+      <c r="D449" s="4"/>
+      <c r="F449" s="8"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="A450" s="4"/>
+      <c r="B450" s="4"/>
+      <c r="C450" s="4"/>
+      <c r="D450" s="4"/>
+      <c r="F450" s="8"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="A451" s="4"/>
+      <c r="B451" s="4"/>
+      <c r="C451" s="4"/>
+      <c r="D451" s="4"/>
+      <c r="F451" s="8"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="A452" s="4"/>
+      <c r="B452" s="4"/>
+      <c r="C452" s="4"/>
+      <c r="D452" s="4"/>
+      <c r="F452" s="8"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="A453" s="4"/>
+      <c r="B453" s="4"/>
+      <c r="C453" s="4"/>
+      <c r="D453" s="4"/>
+      <c r="F453" s="8"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="A454" s="4"/>
+      <c r="B454" s="4"/>
+      <c r="C454" s="4"/>
+      <c r="D454" s="4"/>
+      <c r="F454" s="8"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="A455" s="4"/>
+      <c r="B455" s="4"/>
+      <c r="C455" s="4"/>
+      <c r="D455" s="4"/>
+      <c r="F455" s="8"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="A456" s="4"/>
+      <c r="B456" s="4"/>
+      <c r="C456" s="4"/>
+      <c r="D456" s="4"/>
+      <c r="F456" s="8"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="A457" s="4"/>
+      <c r="B457" s="4"/>
+      <c r="C457" s="4"/>
+      <c r="D457" s="4"/>
+      <c r="F457" s="8"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="A458" s="4"/>
+      <c r="B458" s="4"/>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4"/>
+      <c r="F458" s="8"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="A459" s="4"/>
+      <c r="B459" s="4"/>
+      <c r="C459" s="4"/>
+      <c r="D459" s="4"/>
+      <c r="F459" s="8"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="A460" s="4"/>
+      <c r="B460" s="4"/>
+      <c r="C460" s="4"/>
+      <c r="D460" s="4"/>
+      <c r="F460" s="8"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="A461" s="4"/>
+      <c r="B461" s="4"/>
+      <c r="C461" s="4"/>
+      <c r="D461" s="4"/>
+      <c r="F461" s="8"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="A462" s="4"/>
+      <c r="B462" s="4"/>
+      <c r="C462" s="4"/>
+      <c r="D462" s="4"/>
+      <c r="F462" s="8"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="A463" s="4"/>
+      <c r="B463" s="4"/>
+      <c r="C463" s="4"/>
+      <c r="D463" s="4"/>
+      <c r="F463" s="8"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="A464" s="4"/>
+      <c r="B464" s="4"/>
+      <c r="C464" s="4"/>
+      <c r="D464" s="4"/>
+      <c r="F464" s="8"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="A465" s="4"/>
+      <c r="B465" s="4"/>
+      <c r="C465" s="4"/>
+      <c r="D465" s="4"/>
+      <c r="F465" s="8"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="A466" s="4"/>
+      <c r="B466" s="4"/>
+      <c r="C466" s="4"/>
+      <c r="D466" s="4"/>
+      <c r="F466" s="8"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="A467" s="4"/>
+      <c r="B467" s="4"/>
+      <c r="C467" s="4"/>
+      <c r="D467" s="4"/>
+      <c r="F467" s="8"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="A468" s="4"/>
+      <c r="B468" s="4"/>
+      <c r="C468" s="4"/>
+      <c r="D468" s="4"/>
+      <c r="F468" s="8"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="A469" s="4"/>
+      <c r="B469" s="4"/>
+      <c r="C469" s="4"/>
+      <c r="D469" s="4"/>
+      <c r="F469" s="8"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="A470" s="4"/>
+      <c r="B470" s="4"/>
+      <c r="C470" s="4"/>
+      <c r="D470" s="4"/>
+      <c r="F470" s="8"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="A471" s="4"/>
+      <c r="B471" s="4"/>
+      <c r="C471" s="4"/>
+      <c r="D471" s="4"/>
+      <c r="F471" s="8"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="A472" s="4"/>
+      <c r="B472" s="4"/>
+      <c r="C472" s="4"/>
+      <c r="D472" s="4"/>
+      <c r="F472" s="8"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="A473" s="4"/>
+      <c r="B473" s="4"/>
+      <c r="C473" s="4"/>
+      <c r="D473" s="4"/>
+      <c r="F473" s="8"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="A474" s="4"/>
+      <c r="B474" s="4"/>
+      <c r="C474" s="4"/>
+      <c r="D474" s="4"/>
+      <c r="F474" s="8"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="A475" s="4"/>
+      <c r="B475" s="4"/>
+      <c r="C475" s="4"/>
+      <c r="D475" s="4"/>
+      <c r="F475" s="8"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="A476" s="4"/>
+      <c r="B476" s="4"/>
+      <c r="C476" s="4"/>
+      <c r="D476" s="4"/>
+      <c r="F476" s="8"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="A477" s="4"/>
+      <c r="B477" s="4"/>
+      <c r="C477" s="4"/>
+      <c r="D477" s="4"/>
+      <c r="F477" s="8"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="A478" s="4"/>
+      <c r="B478" s="4"/>
+      <c r="C478" s="4"/>
+      <c r="D478" s="4"/>
+      <c r="F478" s="8"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="A479" s="4"/>
+      <c r="B479" s="4"/>
+      <c r="C479" s="4"/>
+      <c r="D479" s="4"/>
+      <c r="F479" s="8"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="A480" s="4"/>
+      <c r="B480" s="4"/>
+      <c r="C480" s="4"/>
+      <c r="D480" s="4"/>
+      <c r="F480" s="8"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="A481" s="4"/>
+      <c r="B481" s="4"/>
+      <c r="C481" s="4"/>
+      <c r="D481" s="4"/>
+      <c r="F481" s="8"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="A482" s="4"/>
+      <c r="B482" s="4"/>
+      <c r="C482" s="4"/>
+      <c r="D482" s="4"/>
+      <c r="F482" s="8"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="A483" s="4"/>
+      <c r="B483" s="4"/>
+      <c r="C483" s="4"/>
+      <c r="D483" s="4"/>
+      <c r="F483" s="8"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="A484" s="4"/>
+      <c r="B484" s="4"/>
+      <c r="C484" s="4"/>
+      <c r="D484" s="4"/>
+      <c r="F484" s="8"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="A485" s="4"/>
+      <c r="B485" s="4"/>
+      <c r="C485" s="4"/>
+      <c r="D485" s="4"/>
+      <c r="F485" s="8"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="A486" s="4"/>
+      <c r="B486" s="4"/>
+      <c r="C486" s="4"/>
+      <c r="D486" s="4"/>
+      <c r="F486" s="8"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="A487" s="4"/>
+      <c r="B487" s="4"/>
+      <c r="C487" s="4"/>
+      <c r="D487" s="4"/>
+      <c r="F487" s="8"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="A488" s="4"/>
+      <c r="B488" s="4"/>
+      <c r="C488" s="4"/>
+      <c r="D488" s="4"/>
+      <c r="F488" s="8"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="A489" s="4"/>
+      <c r="B489" s="4"/>
+      <c r="C489" s="4"/>
+      <c r="D489" s="4"/>
+      <c r="F489" s="8"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="A490" s="4"/>
+      <c r="B490" s="4"/>
+      <c r="C490" s="4"/>
+      <c r="D490" s="4"/>
+      <c r="F490" s="8"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="A491" s="4"/>
+      <c r="B491" s="4"/>
+      <c r="C491" s="4"/>
+      <c r="D491" s="4"/>
+      <c r="F491" s="8"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="A492" s="4"/>
+      <c r="B492" s="4"/>
+      <c r="C492" s="4"/>
+      <c r="D492" s="4"/>
+      <c r="F492" s="8"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="A493" s="4"/>
+      <c r="B493" s="4"/>
+      <c r="C493" s="4"/>
+      <c r="D493" s="4"/>
+      <c r="F493" s="8"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="A494" s="4"/>
+      <c r="B494" s="4"/>
+      <c r="C494" s="4"/>
+      <c r="D494" s="4"/>
+      <c r="F494" s="8"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="A495" s="4"/>
+      <c r="B495" s="4"/>
+      <c r="C495" s="4"/>
+      <c r="D495" s="4"/>
+      <c r="F495" s="8"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="A496" s="4"/>
+      <c r="B496" s="4"/>
+      <c r="C496" s="4"/>
+      <c r="D496" s="4"/>
+      <c r="F496" s="8"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="A497" s="4"/>
+      <c r="B497" s="4"/>
+      <c r="C497" s="4"/>
+      <c r="D497" s="4"/>
+      <c r="F497" s="8"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="A498" s="4"/>
+      <c r="B498" s="4"/>
+      <c r="C498" s="4"/>
+      <c r="D498" s="4"/>
+      <c r="F498" s="8"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="A499" s="4"/>
+      <c r="B499" s="4"/>
+      <c r="C499" s="4"/>
+      <c r="D499" s="4"/>
+      <c r="F499" s="8"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="A500" s="4"/>
+      <c r="B500" s="4"/>
+      <c r="C500" s="4"/>
+      <c r="D500" s="4"/>
+      <c r="F500" s="8"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="A501" s="4"/>
+      <c r="B501" s="4"/>
+      <c r="C501" s="4"/>
+      <c r="D501" s="4"/>
+      <c r="F501" s="8"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="A502" s="4"/>
+      <c r="B502" s="4"/>
+      <c r="C502" s="4"/>
+      <c r="D502" s="4"/>
+      <c r="F502" s="8"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="A503" s="4"/>
+      <c r="B503" s="4"/>
+      <c r="C503" s="4"/>
+      <c r="D503" s="4"/>
+      <c r="F503" s="8"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="A504" s="4"/>
+      <c r="B504" s="4"/>
+      <c r="C504" s="4"/>
+      <c r="D504" s="4"/>
+      <c r="F504" s="8"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="A505" s="4"/>
+      <c r="B505" s="4"/>
+      <c r="C505" s="4"/>
+      <c r="D505" s="4"/>
+      <c r="F505" s="8"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="A506" s="4"/>
+      <c r="B506" s="4"/>
+      <c r="C506" s="4"/>
+      <c r="D506" s="4"/>
+      <c r="F506" s="8"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="A507" s="4"/>
+      <c r="B507" s="4"/>
+      <c r="C507" s="4"/>
+      <c r="D507" s="4"/>
+      <c r="F507" s="8"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="A508" s="4"/>
+      <c r="B508" s="4"/>
+      <c r="C508" s="4"/>
+      <c r="D508" s="4"/>
+      <c r="F508" s="8"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="A509" s="4"/>
+      <c r="B509" s="4"/>
+      <c r="C509" s="4"/>
+      <c r="D509" s="4"/>
+      <c r="F509" s="8"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="A510" s="4"/>
+      <c r="B510" s="4"/>
+      <c r="C510" s="4"/>
+      <c r="D510" s="4"/>
+      <c r="F510" s="8"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="A511" s="4"/>
+      <c r="B511" s="4"/>
+      <c r="C511" s="4"/>
+      <c r="D511" s="4"/>
+      <c r="F511" s="8"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="A512" s="4"/>
+      <c r="B512" s="4"/>
+      <c r="C512" s="4"/>
+      <c r="D512" s="4"/>
+      <c r="F512" s="8"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="A513" s="4"/>
+      <c r="B513" s="4"/>
+      <c r="C513" s="4"/>
+      <c r="D513" s="4"/>
+      <c r="F513" s="8"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="A514" s="4"/>
+      <c r="B514" s="4"/>
+      <c r="C514" s="4"/>
+      <c r="D514" s="4"/>
+      <c r="F514" s="8"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="A515" s="4"/>
+      <c r="B515" s="4"/>
+      <c r="C515" s="4"/>
+      <c r="D515" s="4"/>
+      <c r="F515" s="8"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="A516" s="4"/>
+      <c r="B516" s="4"/>
+      <c r="C516" s="4"/>
+      <c r="D516" s="4"/>
+      <c r="F516" s="8"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="A517" s="4"/>
+      <c r="B517" s="4"/>
+      <c r="C517" s="4"/>
+      <c r="D517" s="4"/>
+      <c r="F517" s="8"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="A518" s="4"/>
+      <c r="B518" s="4"/>
+      <c r="C518" s="4"/>
+      <c r="D518" s="4"/>
+      <c r="F518" s="8"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="A519" s="4"/>
+      <c r="B519" s="4"/>
+      <c r="C519" s="4"/>
+      <c r="D519" s="4"/>
+      <c r="F519" s="8"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="A520" s="4"/>
+      <c r="B520" s="4"/>
+      <c r="C520" s="4"/>
+      <c r="D520" s="4"/>
+      <c r="F520" s="8"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="A521" s="4"/>
+      <c r="B521" s="4"/>
+      <c r="C521" s="4"/>
+      <c r="D521" s="4"/>
+      <c r="F521" s="8"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="A522" s="4"/>
+      <c r="B522" s="4"/>
+      <c r="C522" s="4"/>
+      <c r="D522" s="4"/>
+      <c r="F522" s="8"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="A523" s="4"/>
+      <c r="B523" s="4"/>
+      <c r="C523" s="4"/>
+      <c r="D523" s="4"/>
+      <c r="F523" s="8"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="A524" s="4"/>
+      <c r="B524" s="4"/>
+      <c r="C524" s="4"/>
+      <c r="D524" s="4"/>
+      <c r="F524" s="8"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="A525" s="4"/>
+      <c r="B525" s="4"/>
+      <c r="C525" s="4"/>
+      <c r="D525" s="4"/>
+      <c r="F525" s="8"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="A526" s="4"/>
+      <c r="B526" s="4"/>
+      <c r="C526" s="4"/>
+      <c r="D526" s="4"/>
+      <c r="F526" s="8"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="A527" s="4"/>
+      <c r="B527" s="4"/>
+      <c r="C527" s="4"/>
+      <c r="D527" s="4"/>
+      <c r="F527" s="8"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="A528" s="4"/>
+      <c r="B528" s="4"/>
+      <c r="C528" s="4"/>
+      <c r="D528" s="4"/>
+      <c r="F528" s="8"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="A529" s="4"/>
+      <c r="B529" s="4"/>
+      <c r="C529" s="4"/>
+      <c r="D529" s="4"/>
+      <c r="F529" s="8"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="A530" s="4"/>
+      <c r="B530" s="4"/>
+      <c r="C530" s="4"/>
+      <c r="D530" s="4"/>
+      <c r="F530" s="8"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="A531" s="4"/>
+      <c r="B531" s="4"/>
+      <c r="C531" s="4"/>
+      <c r="D531" s="4"/>
+      <c r="F531" s="8"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="A532" s="4"/>
+      <c r="B532" s="4"/>
+      <c r="C532" s="4"/>
+      <c r="D532" s="4"/>
+      <c r="F532" s="8"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="A533" s="4"/>
+      <c r="B533" s="4"/>
+      <c r="C533" s="4"/>
+      <c r="D533" s="4"/>
+      <c r="F533" s="8"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="A534" s="4"/>
+      <c r="B534" s="4"/>
+      <c r="C534" s="4"/>
+      <c r="D534" s="4"/>
+      <c r="F534" s="8"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="A535" s="4"/>
+      <c r="B535" s="4"/>
+      <c r="C535" s="4"/>
+      <c r="D535" s="4"/>
+      <c r="F535" s="8"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="A536" s="4"/>
+      <c r="B536" s="4"/>
+      <c r="C536" s="4"/>
+      <c r="D536" s="4"/>
+      <c r="F536" s="8"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="A537" s="4"/>
+      <c r="B537" s="4"/>
+      <c r="C537" s="4"/>
+      <c r="D537" s="4"/>
+      <c r="F537" s="8"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="A538" s="4"/>
+      <c r="B538" s="4"/>
+      <c r="C538" s="4"/>
+      <c r="D538" s="4"/>
+      <c r="F538" s="8"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="A539" s="4"/>
+      <c r="B539" s="4"/>
+      <c r="C539" s="4"/>
+      <c r="D539" s="4"/>
+      <c r="F539" s="8"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="A540" s="4"/>
+      <c r="B540" s="4"/>
+      <c r="C540" s="4"/>
+      <c r="D540" s="4"/>
+      <c r="F540" s="8"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="A541" s="4"/>
+      <c r="B541" s="4"/>
+      <c r="C541" s="4"/>
+      <c r="D541" s="4"/>
+      <c r="F541" s="8"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="A542" s="4"/>
+      <c r="B542" s="4"/>
+      <c r="C542" s="4"/>
+      <c r="D542" s="4"/>
+      <c r="F542" s="8"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="A543" s="4"/>
+      <c r="B543" s="4"/>
+      <c r="C543" s="4"/>
+      <c r="D543" s="4"/>
+      <c r="F543" s="8"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="A544" s="4"/>
+      <c r="B544" s="4"/>
+      <c r="C544" s="4"/>
+      <c r="D544" s="4"/>
+      <c r="F544" s="8"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="A545" s="4"/>
+      <c r="B545" s="4"/>
+      <c r="C545" s="4"/>
+      <c r="D545" s="4"/>
+      <c r="F545" s="8"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="A546" s="4"/>
+      <c r="B546" s="4"/>
+      <c r="C546" s="4"/>
+      <c r="D546" s="4"/>
+      <c r="F546" s="8"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="A547" s="4"/>
+      <c r="B547" s="4"/>
+      <c r="C547" s="4"/>
+      <c r="D547" s="4"/>
+      <c r="F547" s="8"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="A548" s="4"/>
+      <c r="B548" s="4"/>
+      <c r="C548" s="4"/>
+      <c r="D548" s="4"/>
+      <c r="F548" s="8"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="A549" s="4"/>
+      <c r="B549" s="4"/>
+      <c r="C549" s="4"/>
+      <c r="D549" s="4"/>
+      <c r="F549" s="8"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="A550" s="4"/>
+      <c r="B550" s="4"/>
+      <c r="C550" s="4"/>
+      <c r="D550" s="4"/>
+      <c r="F550" s="8"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="A551" s="4"/>
+      <c r="B551" s="4"/>
+      <c r="C551" s="4"/>
+      <c r="D551" s="4"/>
+      <c r="F551" s="8"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="A552" s="4"/>
+      <c r="B552" s="4"/>
+      <c r="C552" s="4"/>
+      <c r="D552" s="4"/>
+      <c r="F552" s="8"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="A553" s="4"/>
+      <c r="B553" s="4"/>
+      <c r="C553" s="4"/>
+      <c r="D553" s="4"/>
+      <c r="F553" s="8"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="A554" s="4"/>
+      <c r="B554" s="4"/>
+      <c r="C554" s="4"/>
+      <c r="D554" s="4"/>
+      <c r="F554" s="8"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="A555" s="4"/>
+      <c r="B555" s="4"/>
+      <c r="C555" s="4"/>
+      <c r="D555" s="4"/>
+      <c r="F555" s="8"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="A556" s="4"/>
+      <c r="B556" s="4"/>
+      <c r="C556" s="4"/>
+      <c r="D556" s="4"/>
+      <c r="F556" s="8"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="A557" s="4"/>
+      <c r="B557" s="4"/>
+      <c r="C557" s="4"/>
+      <c r="D557" s="4"/>
+      <c r="F557" s="8"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="A558" s="4"/>
+      <c r="B558" s="4"/>
+      <c r="C558" s="4"/>
+      <c r="D558" s="4"/>
+      <c r="F558" s="8"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="A559" s="4"/>
+      <c r="B559" s="4"/>
+      <c r="C559" s="4"/>
+      <c r="D559" s="4"/>
+      <c r="F559" s="8"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="A560" s="4"/>
+      <c r="B560" s="4"/>
+      <c r="C560" s="4"/>
+      <c r="D560" s="4"/>
+      <c r="F560" s="8"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="A561" s="4"/>
+      <c r="B561" s="4"/>
+      <c r="C561" s="4"/>
+      <c r="D561" s="4"/>
+      <c r="F561" s="8"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="A562" s="4"/>
+      <c r="B562" s="4"/>
+      <c r="C562" s="4"/>
+      <c r="D562" s="4"/>
+      <c r="F562" s="8"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="A563" s="4"/>
+      <c r="B563" s="4"/>
+      <c r="C563" s="4"/>
+      <c r="D563" s="4"/>
+      <c r="F563" s="8"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="A564" s="4"/>
+      <c r="B564" s="4"/>
+      <c r="C564" s="4"/>
+      <c r="D564" s="4"/>
+      <c r="F564" s="8"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="A565" s="4"/>
+      <c r="B565" s="4"/>
+      <c r="C565" s="4"/>
+      <c r="D565" s="4"/>
+      <c r="F565" s="8"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="A566" s="4"/>
+      <c r="B566" s="4"/>
+      <c r="C566" s="4"/>
+      <c r="D566" s="4"/>
+      <c r="F566" s="8"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="A567" s="4"/>
+      <c r="B567" s="4"/>
+      <c r="C567" s="4"/>
+      <c r="D567" s="4"/>
+      <c r="F567" s="8"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="A568" s="4"/>
+      <c r="B568" s="4"/>
+      <c r="C568" s="4"/>
+      <c r="D568" s="4"/>
+      <c r="F568" s="8"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="A569" s="4"/>
+      <c r="B569" s="4"/>
+      <c r="C569" s="4"/>
+      <c r="D569" s="4"/>
+      <c r="F569" s="8"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="A570" s="4"/>
+      <c r="B570" s="4"/>
+      <c r="C570" s="4"/>
+      <c r="D570" s="4"/>
+      <c r="F570" s="8"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="A571" s="4"/>
+      <c r="B571" s="4"/>
+      <c r="C571" s="4"/>
+      <c r="D571" s="4"/>
+      <c r="F571" s="8"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="A572" s="4"/>
+      <c r="B572" s="4"/>
+      <c r="C572" s="4"/>
+      <c r="D572" s="4"/>
+      <c r="F572" s="8"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="A573" s="4"/>
+      <c r="B573" s="4"/>
+      <c r="C573" s="4"/>
+      <c r="D573" s="4"/>
+      <c r="F573" s="8"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="A574" s="4"/>
+      <c r="B574" s="4"/>
+      <c r="C574" s="4"/>
+      <c r="D574" s="4"/>
+      <c r="F574" s="8"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="A575" s="4"/>
+      <c r="B575" s="4"/>
+      <c r="C575" s="4"/>
+      <c r="D575" s="4"/>
+      <c r="F575" s="8"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="A576" s="4"/>
+      <c r="B576" s="4"/>
+      <c r="C576" s="4"/>
+      <c r="D576" s="4"/>
+      <c r="F576" s="8"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="A577" s="4"/>
+      <c r="B577" s="4"/>
+      <c r="C577" s="4"/>
+      <c r="D577" s="4"/>
+      <c r="F577" s="8"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="A578" s="4"/>
+      <c r="B578" s="4"/>
+      <c r="C578" s="4"/>
+      <c r="D578" s="4"/>
+      <c r="F578" s="8"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="A579" s="4"/>
+      <c r="B579" s="4"/>
+      <c r="C579" s="4"/>
+      <c r="D579" s="4"/>
+      <c r="F579" s="8"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="A580" s="4"/>
+      <c r="B580" s="4"/>
+      <c r="C580" s="4"/>
+      <c r="D580" s="4"/>
+      <c r="F580" s="8"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="A581" s="4"/>
+      <c r="B581" s="4"/>
+      <c r="C581" s="4"/>
+      <c r="D581" s="4"/>
+      <c r="F581" s="8"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="A582" s="4"/>
+      <c r="B582" s="4"/>
+      <c r="C582" s="4"/>
+      <c r="D582" s="4"/>
+      <c r="F582" s="8"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="A583" s="4"/>
+      <c r="B583" s="4"/>
+      <c r="C583" s="4"/>
+      <c r="D583" s="4"/>
+      <c r="F583" s="8"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="A584" s="4"/>
+      <c r="B584" s="4"/>
+      <c r="C584" s="4"/>
+      <c r="D584" s="4"/>
+      <c r="F584" s="8"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="A585" s="4"/>
+      <c r="B585" s="4"/>
+      <c r="C585" s="4"/>
+      <c r="D585" s="4"/>
+      <c r="F585" s="8"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="A586" s="4"/>
+      <c r="B586" s="4"/>
+      <c r="C586" s="4"/>
+      <c r="D586" s="4"/>
+      <c r="F586" s="8"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="A587" s="4"/>
+      <c r="B587" s="4"/>
+      <c r="C587" s="4"/>
+      <c r="D587" s="4"/>
+      <c r="F587" s="8"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="A588" s="4"/>
+      <c r="B588" s="4"/>
+      <c r="C588" s="4"/>
+      <c r="D588" s="4"/>
+      <c r="F588" s="8"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="A589" s="4"/>
+      <c r="B589" s="4"/>
+      <c r="C589" s="4"/>
+      <c r="D589" s="4"/>
+      <c r="F589" s="8"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="A590" s="4"/>
+      <c r="B590" s="4"/>
+      <c r="C590" s="4"/>
+      <c r="D590" s="4"/>
+      <c r="F590" s="8"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="A591" s="4"/>
+      <c r="B591" s="4"/>
+      <c r="C591" s="4"/>
+      <c r="D591" s="4"/>
+      <c r="F591" s="8"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="A592" s="4"/>
+      <c r="B592" s="4"/>
+      <c r="C592" s="4"/>
+      <c r="D592" s="4"/>
+      <c r="F592" s="8"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="A593" s="4"/>
+      <c r="B593" s="4"/>
+      <c r="C593" s="4"/>
+      <c r="D593" s="4"/>
+      <c r="F593" s="8"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="A594" s="4"/>
+      <c r="B594" s="4"/>
+      <c r="C594" s="4"/>
+      <c r="D594" s="4"/>
+      <c r="F594" s="8"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="A595" s="4"/>
+      <c r="B595" s="4"/>
+      <c r="C595" s="4"/>
+      <c r="D595" s="4"/>
+      <c r="F595" s="8"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="A596" s="4"/>
+      <c r="B596" s="4"/>
+      <c r="C596" s="4"/>
+      <c r="D596" s="4"/>
+      <c r="F596" s="8"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="A597" s="4"/>
+      <c r="B597" s="4"/>
+      <c r="C597" s="4"/>
+      <c r="D597" s="4"/>
+      <c r="F597" s="8"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="A598" s="4"/>
+      <c r="B598" s="4"/>
+      <c r="C598" s="4"/>
+      <c r="D598" s="4"/>
+      <c r="F598" s="8"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="A599" s="4"/>
+      <c r="B599" s="4"/>
+      <c r="C599" s="4"/>
+      <c r="D599" s="4"/>
+      <c r="F599" s="8"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="A600" s="4"/>
+      <c r="B600" s="4"/>
+      <c r="C600" s="4"/>
+      <c r="D600" s="4"/>
+      <c r="F600" s="8"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="A601" s="4"/>
+      <c r="B601" s="4"/>
+      <c r="C601" s="4"/>
+      <c r="D601" s="4"/>
+      <c r="F601" s="8"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="A602" s="4"/>
+      <c r="B602" s="4"/>
+      <c r="C602" s="4"/>
+      <c r="D602" s="4"/>
+      <c r="F602" s="8"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="A603" s="4"/>
+      <c r="B603" s="4"/>
+      <c r="C603" s="4"/>
+      <c r="D603" s="4"/>
+      <c r="F603" s="8"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="A604" s="4"/>
+      <c r="B604" s="4"/>
+      <c r="C604" s="4"/>
+      <c r="D604" s="4"/>
+      <c r="F604" s="8"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="A605" s="4"/>
+      <c r="B605" s="4"/>
+      <c r="C605" s="4"/>
+      <c r="D605" s="4"/>
+      <c r="F605" s="8"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="A606" s="4"/>
+      <c r="B606" s="4"/>
+      <c r="C606" s="4"/>
+      <c r="D606" s="4"/>
+      <c r="F606" s="8"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="A607" s="4"/>
+      <c r="B607" s="4"/>
+      <c r="C607" s="4"/>
+      <c r="D607" s="4"/>
+      <c r="F607" s="8"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="A608" s="4"/>
+      <c r="B608" s="4"/>
+      <c r="C608" s="4"/>
+      <c r="D608" s="4"/>
+      <c r="F608" s="8"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="A609" s="4"/>
+      <c r="B609" s="4"/>
+      <c r="C609" s="4"/>
+      <c r="D609" s="4"/>
+      <c r="F609" s="8"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="A610" s="4"/>
+      <c r="B610" s="4"/>
+      <c r="C610" s="4"/>
+      <c r="D610" s="4"/>
+      <c r="F610" s="8"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="A611" s="4"/>
+      <c r="B611" s="4"/>
+      <c r="C611" s="4"/>
+      <c r="D611" s="4"/>
+      <c r="F611" s="8"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="A612" s="4"/>
+      <c r="B612" s="4"/>
+      <c r="C612" s="4"/>
+      <c r="D612" s="4"/>
+      <c r="F612" s="8"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="A613" s="4"/>
+      <c r="B613" s="4"/>
+      <c r="C613" s="4"/>
+      <c r="D613" s="4"/>
+      <c r="F613" s="8"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="A614" s="4"/>
+      <c r="B614" s="4"/>
+      <c r="C614" s="4"/>
+      <c r="D614" s="4"/>
+      <c r="F614" s="8"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="A615" s="4"/>
+      <c r="B615" s="4"/>
+      <c r="C615" s="4"/>
+      <c r="D615" s="4"/>
+      <c r="F615" s="8"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="A616" s="4"/>
+      <c r="B616" s="4"/>
+      <c r="C616" s="4"/>
+      <c r="D616" s="4"/>
+      <c r="F616" s="8"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="A617" s="4"/>
+      <c r="B617" s="4"/>
+      <c r="C617" s="4"/>
+      <c r="D617" s="4"/>
+      <c r="F617" s="8"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="A618" s="4"/>
+      <c r="B618" s="4"/>
+      <c r="C618" s="4"/>
+      <c r="D618" s="4"/>
+      <c r="F618" s="8"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="A619" s="4"/>
+      <c r="B619" s="4"/>
+      <c r="C619" s="4"/>
+      <c r="D619" s="4"/>
+      <c r="F619" s="8"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="A620" s="4"/>
+      <c r="B620" s="4"/>
+      <c r="C620" s="4"/>
+      <c r="D620" s="4"/>
+      <c r="F620" s="8"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="A621" s="4"/>
+      <c r="B621" s="4"/>
+      <c r="C621" s="4"/>
+      <c r="D621" s="4"/>
+      <c r="F621" s="8"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="A622" s="4"/>
+      <c r="B622" s="4"/>
+      <c r="C622" s="4"/>
+      <c r="D622" s="4"/>
+      <c r="F622" s="8"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="A623" s="4"/>
+      <c r="B623" s="4"/>
+      <c r="C623" s="4"/>
+      <c r="D623" s="4"/>
+      <c r="F623" s="8"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="A624" s="4"/>
+      <c r="B624" s="4"/>
+      <c r="C624" s="4"/>
+      <c r="D624" s="4"/>
+      <c r="F624" s="8"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="A625" s="4"/>
+      <c r="B625" s="4"/>
+      <c r="C625" s="4"/>
+      <c r="D625" s="4"/>
+      <c r="F625" s="8"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="A626" s="4"/>
+      <c r="B626" s="4"/>
+      <c r="C626" s="4"/>
+      <c r="D626" s="4"/>
+      <c r="F626" s="8"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="A627" s="4"/>
+      <c r="B627" s="4"/>
+      <c r="C627" s="4"/>
+      <c r="D627" s="4"/>
+      <c r="F627" s="8"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="A628" s="4"/>
+      <c r="B628" s="4"/>
+      <c r="C628" s="4"/>
+      <c r="D628" s="4"/>
+      <c r="F628" s="8"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="A629" s="4"/>
+      <c r="B629" s="4"/>
+      <c r="C629" s="4"/>
+      <c r="D629" s="4"/>
+      <c r="F629" s="8"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="A630" s="4"/>
+      <c r="B630" s="4"/>
+      <c r="C630" s="4"/>
+      <c r="D630" s="4"/>
+      <c r="F630" s="8"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="A631" s="4"/>
+      <c r="B631" s="4"/>
+      <c r="C631" s="4"/>
+      <c r="D631" s="4"/>
+      <c r="F631" s="8"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="A632" s="4"/>
+      <c r="B632" s="4"/>
+      <c r="C632" s="4"/>
+      <c r="D632" s="4"/>
+      <c r="F632" s="8"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="A633" s="4"/>
+      <c r="B633" s="4"/>
+      <c r="C633" s="4"/>
+      <c r="D633" s="4"/>
+      <c r="F633" s="8"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="A634" s="4"/>
+      <c r="B634" s="4"/>
+      <c r="C634" s="4"/>
+      <c r="D634" s="4"/>
+      <c r="F634" s="8"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="A635" s="4"/>
+      <c r="B635" s="4"/>
+      <c r="C635" s="4"/>
+      <c r="D635" s="4"/>
+      <c r="F635" s="8"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="A636" s="4"/>
+      <c r="B636" s="4"/>
+      <c r="C636" s="4"/>
+      <c r="D636" s="4"/>
+      <c r="F636" s="8"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="A637" s="4"/>
+      <c r="B637" s="4"/>
+      <c r="C637" s="4"/>
+      <c r="D637" s="4"/>
+      <c r="F637" s="8"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="A638" s="4"/>
+      <c r="B638" s="4"/>
+      <c r="C638" s="4"/>
+      <c r="D638" s="4"/>
+      <c r="F638" s="8"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="A639" s="4"/>
+      <c r="B639" s="4"/>
+      <c r="C639" s="4"/>
+      <c r="D639" s="4"/>
+      <c r="F639" s="8"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="A640" s="4"/>
+      <c r="B640" s="4"/>
+      <c r="C640" s="4"/>
+      <c r="D640" s="4"/>
+      <c r="F640" s="8"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="A641" s="4"/>
+      <c r="B641" s="4"/>
+      <c r="C641" s="4"/>
+      <c r="D641" s="4"/>
+      <c r="F641" s="8"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="A642" s="4"/>
+      <c r="B642" s="4"/>
+      <c r="C642" s="4"/>
+      <c r="D642" s="4"/>
+      <c r="F642" s="8"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="A643" s="4"/>
+      <c r="B643" s="4"/>
+      <c r="C643" s="4"/>
+      <c r="D643" s="4"/>
+      <c r="F643" s="8"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="A644" s="4"/>
+      <c r="B644" s="4"/>
+      <c r="C644" s="4"/>
+      <c r="D644" s="4"/>
+      <c r="F644" s="8"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="A645" s="4"/>
+      <c r="B645" s="4"/>
+      <c r="C645" s="4"/>
+      <c r="D645" s="4"/>
+      <c r="F645" s="8"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="A646" s="4"/>
+      <c r="B646" s="4"/>
+      <c r="C646" s="4"/>
+      <c r="D646" s="4"/>
+      <c r="F646" s="8"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="A647" s="4"/>
+      <c r="B647" s="4"/>
+      <c r="C647" s="4"/>
+      <c r="D647" s="4"/>
+      <c r="F647" s="8"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="A648" s="4"/>
+      <c r="B648" s="4"/>
+      <c r="C648" s="4"/>
+      <c r="D648" s="4"/>
+      <c r="F648" s="8"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="A649" s="4"/>
+      <c r="B649" s="4"/>
+      <c r="C649" s="4"/>
+      <c r="D649" s="4"/>
+      <c r="F649" s="8"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="A650" s="4"/>
+      <c r="B650" s="4"/>
+      <c r="C650" s="4"/>
+      <c r="D650" s="4"/>
+      <c r="F650" s="8"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="A651" s="4"/>
+      <c r="B651" s="4"/>
+      <c r="C651" s="4"/>
+      <c r="D651" s="4"/>
+      <c r="F651" s="8"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="A652" s="4"/>
+      <c r="B652" s="4"/>
+      <c r="C652" s="4"/>
+      <c r="D652" s="4"/>
+      <c r="F652" s="8"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="A653" s="4"/>
+      <c r="B653" s="4"/>
+      <c r="C653" s="4"/>
+      <c r="D653" s="4"/>
+      <c r="F653" s="8"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="A654" s="4"/>
+      <c r="B654" s="4"/>
+      <c r="C654" s="4"/>
+      <c r="D654" s="4"/>
+      <c r="F654" s="8"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="A655" s="4"/>
+      <c r="B655" s="4"/>
+      <c r="C655" s="4"/>
+      <c r="D655" s="4"/>
+      <c r="F655" s="8"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="A656" s="4"/>
+      <c r="B656" s="4"/>
+      <c r="C656" s="4"/>
+      <c r="D656" s="4"/>
+      <c r="F656" s="8"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="A657" s="4"/>
+      <c r="B657" s="4"/>
+      <c r="C657" s="4"/>
+      <c r="D657" s="4"/>
+      <c r="F657" s="8"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="A658" s="4"/>
+      <c r="B658" s="4"/>
+      <c r="C658" s="4"/>
+      <c r="D658" s="4"/>
+      <c r="F658" s="8"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="A659" s="4"/>
+      <c r="B659" s="4"/>
+      <c r="C659" s="4"/>
+      <c r="D659" s="4"/>
+      <c r="F659" s="8"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="A660" s="4"/>
+      <c r="B660" s="4"/>
+      <c r="C660" s="4"/>
+      <c r="D660" s="4"/>
+      <c r="F660" s="8"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="A661" s="4"/>
+      <c r="B661" s="4"/>
+      <c r="C661" s="4"/>
+      <c r="D661" s="4"/>
+      <c r="F661" s="8"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="A662" s="4"/>
+      <c r="B662" s="4"/>
+      <c r="C662" s="4"/>
+      <c r="D662" s="4"/>
+      <c r="F662" s="8"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="A663" s="4"/>
+      <c r="B663" s="4"/>
+      <c r="C663" s="4"/>
+      <c r="D663" s="4"/>
+      <c r="F663" s="8"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="A664" s="4"/>
+      <c r="B664" s="4"/>
+      <c r="C664" s="4"/>
+      <c r="D664" s="4"/>
+      <c r="F664" s="8"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="A665" s="4"/>
+      <c r="B665" s="4"/>
+      <c r="C665" s="4"/>
+      <c r="D665" s="4"/>
+      <c r="F665" s="8"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="A666" s="4"/>
+      <c r="B666" s="4"/>
+      <c r="C666" s="4"/>
+      <c r="D666" s="4"/>
+      <c r="F666" s="8"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="A667" s="4"/>
+      <c r="B667" s="4"/>
+      <c r="C667" s="4"/>
+      <c r="D667" s="4"/>
+      <c r="F667" s="8"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="A668" s="4"/>
+      <c r="B668" s="4"/>
+      <c r="C668" s="4"/>
+      <c r="D668" s="4"/>
+      <c r="F668" s="8"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="A669" s="4"/>
+      <c r="B669" s="4"/>
+      <c r="C669" s="4"/>
+      <c r="D669" s="4"/>
+      <c r="F669" s="8"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="A670" s="4"/>
+      <c r="B670" s="4"/>
+      <c r="C670" s="4"/>
+      <c r="D670" s="4"/>
+      <c r="F670" s="8"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="A671" s="4"/>
+      <c r="B671" s="4"/>
+      <c r="C671" s="4"/>
+      <c r="D671" s="4"/>
+      <c r="F671" s="8"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="A672" s="4"/>
+      <c r="B672" s="4"/>
+      <c r="C672" s="4"/>
+      <c r="D672" s="4"/>
+      <c r="F672" s="8"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="A673" s="4"/>
+      <c r="B673" s="4"/>
+      <c r="C673" s="4"/>
+      <c r="D673" s="4"/>
+      <c r="F673" s="8"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="A674" s="4"/>
+      <c r="B674" s="4"/>
+      <c r="C674" s="4"/>
+      <c r="D674" s="4"/>
+      <c r="F674" s="8"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="A675" s="4"/>
+      <c r="B675" s="4"/>
+      <c r="C675" s="4"/>
+      <c r="D675" s="4"/>
+      <c r="F675" s="8"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="A676" s="4"/>
+      <c r="B676" s="4"/>
+      <c r="C676" s="4"/>
+      <c r="D676" s="4"/>
+      <c r="F676" s="8"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="A677" s="4"/>
+      <c r="B677" s="4"/>
+      <c r="C677" s="4"/>
+      <c r="D677" s="4"/>
+      <c r="F677" s="8"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="A678" s="4"/>
+      <c r="B678" s="4"/>
+      <c r="C678" s="4"/>
+      <c r="D678" s="4"/>
+      <c r="F678" s="8"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="A679" s="4"/>
+      <c r="B679" s="4"/>
+      <c r="C679" s="4"/>
+      <c r="D679" s="4"/>
+      <c r="F679" s="8"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="A680" s="4"/>
+      <c r="B680" s="4"/>
+      <c r="C680" s="4"/>
+      <c r="D680" s="4"/>
+      <c r="F680" s="8"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="A681" s="4"/>
+      <c r="B681" s="4"/>
+      <c r="C681" s="4"/>
+      <c r="D681" s="4"/>
+      <c r="F681" s="8"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="A682" s="4"/>
+      <c r="B682" s="4"/>
+      <c r="C682" s="4"/>
+      <c r="D682" s="4"/>
+      <c r="F682" s="8"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="A683" s="4"/>
+      <c r="B683" s="4"/>
+      <c r="C683" s="4"/>
+      <c r="D683" s="4"/>
+      <c r="F683" s="8"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="A684" s="4"/>
+      <c r="B684" s="4"/>
+      <c r="C684" s="4"/>
+      <c r="D684" s="4"/>
+      <c r="F684" s="8"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="A685" s="4"/>
+      <c r="B685" s="4"/>
+      <c r="C685" s="4"/>
+      <c r="D685" s="4"/>
+      <c r="F685" s="8"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="A686" s="4"/>
+      <c r="B686" s="4"/>
+      <c r="C686" s="4"/>
+      <c r="D686" s="4"/>
+      <c r="F686" s="8"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="A687" s="4"/>
+      <c r="B687" s="4"/>
+      <c r="C687" s="4"/>
+      <c r="D687" s="4"/>
+      <c r="F687" s="8"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="A688" s="4"/>
+      <c r="B688" s="4"/>
+      <c r="C688" s="4"/>
+      <c r="D688" s="4"/>
+      <c r="F688" s="8"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="A689" s="4"/>
+      <c r="B689" s="4"/>
+      <c r="C689" s="4"/>
+      <c r="D689" s="4"/>
+      <c r="F689" s="8"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="A690" s="4"/>
+      <c r="B690" s="4"/>
+      <c r="C690" s="4"/>
+      <c r="D690" s="4"/>
+      <c r="F690" s="8"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="A691" s="4"/>
+      <c r="B691" s="4"/>
+      <c r="C691" s="4"/>
+      <c r="D691" s="4"/>
+      <c r="F691" s="8"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="A692" s="4"/>
+      <c r="B692" s="4"/>
+      <c r="C692" s="4"/>
+      <c r="D692" s="4"/>
+      <c r="F692" s="8"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="A693" s="4"/>
+      <c r="B693" s="4"/>
+      <c r="C693" s="4"/>
+      <c r="D693" s="4"/>
+      <c r="F693" s="8"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="A694" s="4"/>
+      <c r="B694" s="4"/>
+      <c r="C694" s="4"/>
+      <c r="D694" s="4"/>
+      <c r="F694" s="8"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="A695" s="4"/>
+      <c r="B695" s="4"/>
+      <c r="C695" s="4"/>
+      <c r="D695" s="4"/>
+      <c r="F695" s="8"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="A696" s="4"/>
+      <c r="B696" s="4"/>
+      <c r="C696" s="4"/>
+      <c r="D696" s="4"/>
+      <c r="F696" s="8"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="A697" s="4"/>
+      <c r="B697" s="4"/>
+      <c r="C697" s="4"/>
+      <c r="D697" s="4"/>
+      <c r="F697" s="8"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="A698" s="4"/>
+      <c r="B698" s="4"/>
+      <c r="C698" s="4"/>
+      <c r="D698" s="4"/>
+      <c r="F698" s="8"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="A699" s="4"/>
+      <c r="B699" s="4"/>
+      <c r="C699" s="4"/>
+      <c r="D699" s="4"/>
+      <c r="F699" s="8"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="A700" s="4"/>
+      <c r="B700" s="4"/>
+      <c r="C700" s="4"/>
+      <c r="D700" s="4"/>
+      <c r="F700" s="8"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="A701" s="4"/>
+      <c r="B701" s="4"/>
+      <c r="C701" s="4"/>
+      <c r="D701" s="4"/>
+      <c r="F701" s="8"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="A702" s="4"/>
+      <c r="B702" s="4"/>
+      <c r="C702" s="4"/>
+      <c r="D702" s="4"/>
+      <c r="F702" s="8"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="A703" s="4"/>
+      <c r="B703" s="4"/>
+      <c r="C703" s="4"/>
+      <c r="D703" s="4"/>
+      <c r="F703" s="8"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="A704" s="4"/>
+      <c r="B704" s="4"/>
+      <c r="C704" s="4"/>
+      <c r="D704" s="4"/>
+      <c r="F704" s="8"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="A705" s="4"/>
+      <c r="B705" s="4"/>
+      <c r="C705" s="4"/>
+      <c r="D705" s="4"/>
+      <c r="F705" s="8"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="A706" s="4"/>
+      <c r="B706" s="4"/>
+      <c r="C706" s="4"/>
+      <c r="D706" s="4"/>
+      <c r="F706" s="8"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="A707" s="4"/>
+      <c r="B707" s="4"/>
+      <c r="C707" s="4"/>
+      <c r="D707" s="4"/>
+      <c r="F707" s="8"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="A708" s="4"/>
+      <c r="B708" s="4"/>
+      <c r="C708" s="4"/>
+      <c r="D708" s="4"/>
+      <c r="F708" s="8"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="A709" s="4"/>
+      <c r="B709" s="4"/>
+      <c r="C709" s="4"/>
+      <c r="D709" s="4"/>
+      <c r="F709" s="8"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="A710" s="4"/>
+      <c r="B710" s="4"/>
+      <c r="C710" s="4"/>
+      <c r="D710" s="4"/>
+      <c r="F710" s="8"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="A711" s="4"/>
+      <c r="B711" s="4"/>
+      <c r="C711" s="4"/>
+      <c r="D711" s="4"/>
+      <c r="F711" s="8"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="A712" s="4"/>
+      <c r="B712" s="4"/>
+      <c r="C712" s="4"/>
+      <c r="D712" s="4"/>
+      <c r="F712" s="8"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="A713" s="4"/>
+      <c r="B713" s="4"/>
+      <c r="C713" s="4"/>
+      <c r="D713" s="4"/>
+      <c r="F713" s="8"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="A714" s="4"/>
+      <c r="B714" s="4"/>
+      <c r="C714" s="4"/>
+      <c r="D714" s="4"/>
+      <c r="F714" s="8"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="A715" s="4"/>
+      <c r="B715" s="4"/>
+      <c r="C715" s="4"/>
+      <c r="D715" s="4"/>
+      <c r="F715" s="8"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="A716" s="4"/>
+      <c r="B716" s="4"/>
+      <c r="C716" s="4"/>
+      <c r="D716" s="4"/>
+      <c r="F716" s="8"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="A717" s="4"/>
+      <c r="B717" s="4"/>
+      <c r="C717" s="4"/>
+      <c r="D717" s="4"/>
+      <c r="F717" s="8"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="A718" s="4"/>
+      <c r="B718" s="4"/>
+      <c r="C718" s="4"/>
+      <c r="D718" s="4"/>
+      <c r="F718" s="8"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="A719" s="4"/>
+      <c r="B719" s="4"/>
+      <c r="C719" s="4"/>
+      <c r="D719" s="4"/>
+      <c r="F719" s="8"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="A720" s="4"/>
+      <c r="B720" s="4"/>
+      <c r="C720" s="4"/>
+      <c r="D720" s="4"/>
+      <c r="F720" s="8"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="A721" s="4"/>
+      <c r="B721" s="4"/>
+      <c r="C721" s="4"/>
+      <c r="D721" s="4"/>
+      <c r="F721" s="8"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="A722" s="4"/>
+      <c r="B722" s="4"/>
+      <c r="C722" s="4"/>
+      <c r="D722" s="4"/>
+      <c r="F722" s="8"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="A723" s="4"/>
+      <c r="B723" s="4"/>
+      <c r="C723" s="4"/>
+      <c r="D723" s="4"/>
+      <c r="F723" s="8"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="A724" s="4"/>
+      <c r="B724" s="4"/>
+      <c r="C724" s="4"/>
+      <c r="D724" s="4"/>
+      <c r="F724" s="8"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="A725" s="4"/>
+      <c r="B725" s="4"/>
+      <c r="C725" s="4"/>
+      <c r="D725" s="4"/>
+      <c r="F725" s="8"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="A726" s="4"/>
+      <c r="B726" s="4"/>
+      <c r="C726" s="4"/>
+      <c r="D726" s="4"/>
+      <c r="F726" s="8"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="A727" s="4"/>
+      <c r="B727" s="4"/>
+      <c r="C727" s="4"/>
+      <c r="D727" s="4"/>
+      <c r="F727" s="8"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="A728" s="4"/>
+      <c r="B728" s="4"/>
+      <c r="C728" s="4"/>
+      <c r="D728" s="4"/>
+      <c r="F728" s="8"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="A729" s="4"/>
+      <c r="B729" s="4"/>
+      <c r="C729" s="4"/>
+      <c r="D729" s="4"/>
+      <c r="F729" s="8"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="A730" s="4"/>
+      <c r="B730" s="4"/>
+      <c r="C730" s="4"/>
+      <c r="D730" s="4"/>
+      <c r="F730" s="8"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="A731" s="4"/>
+      <c r="B731" s="4"/>
+      <c r="C731" s="4"/>
+      <c r="D731" s="4"/>
+      <c r="F731" s="8"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="A732" s="4"/>
+      <c r="B732" s="4"/>
+      <c r="C732" s="4"/>
+      <c r="D732" s="4"/>
+      <c r="F732" s="8"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="A733" s="4"/>
+      <c r="B733" s="4"/>
+      <c r="C733" s="4"/>
+      <c r="D733" s="4"/>
+      <c r="F733" s="8"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="A734" s="4"/>
+      <c r="B734" s="4"/>
+      <c r="C734" s="4"/>
+      <c r="D734" s="4"/>
+      <c r="F734" s="8"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="A735" s="4"/>
+      <c r="B735" s="4"/>
+      <c r="C735" s="4"/>
+      <c r="D735" s="4"/>
+      <c r="F735" s="8"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="A736" s="4"/>
+      <c r="B736" s="4"/>
+      <c r="C736" s="4"/>
+      <c r="D736" s="4"/>
+      <c r="F736" s="8"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="A737" s="4"/>
+      <c r="B737" s="4"/>
+      <c r="C737" s="4"/>
+      <c r="D737" s="4"/>
+      <c r="F737" s="8"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="A738" s="4"/>
+      <c r="B738" s="4"/>
+      <c r="C738" s="4"/>
+      <c r="D738" s="4"/>
+      <c r="F738" s="8"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="A739" s="4"/>
+      <c r="B739" s="4"/>
+      <c r="C739" s="4"/>
+      <c r="D739" s="4"/>
+      <c r="F739" s="8"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="A740" s="4"/>
+      <c r="B740" s="4"/>
+      <c r="C740" s="4"/>
+      <c r="D740" s="4"/>
+      <c r="F740" s="8"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="A741" s="4"/>
+      <c r="B741" s="4"/>
+      <c r="C741" s="4"/>
+      <c r="D741" s="4"/>
+      <c r="F741" s="8"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="A742" s="4"/>
+      <c r="B742" s="4"/>
+      <c r="C742" s="4"/>
+      <c r="D742" s="4"/>
+      <c r="F742" s="8"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="A743" s="4"/>
+      <c r="B743" s="4"/>
+      <c r="C743" s="4"/>
+      <c r="D743" s="4"/>
+      <c r="F743" s="8"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="A744" s="4"/>
+      <c r="B744" s="4"/>
+      <c r="C744" s="4"/>
+      <c r="D744" s="4"/>
+      <c r="F744" s="8"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="A745" s="4"/>
+      <c r="B745" s="4"/>
+      <c r="C745" s="4"/>
+      <c r="D745" s="4"/>
+      <c r="F745" s="8"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="A746" s="4"/>
+      <c r="B746" s="4"/>
+      <c r="C746" s="4"/>
+      <c r="D746" s="4"/>
+      <c r="F746" s="8"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="A747" s="4"/>
+      <c r="B747" s="4"/>
+      <c r="C747" s="4"/>
+      <c r="D747" s="4"/>
+      <c r="F747" s="8"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="A748" s="4"/>
+      <c r="B748" s="4"/>
+      <c r="C748" s="4"/>
+      <c r="D748" s="4"/>
+      <c r="F748" s="8"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="A749" s="4"/>
+      <c r="B749" s="4"/>
+      <c r="C749" s="4"/>
+      <c r="D749" s="4"/>
+      <c r="F749" s="8"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="A750" s="4"/>
+      <c r="B750" s="4"/>
+      <c r="C750" s="4"/>
+      <c r="D750" s="4"/>
+      <c r="F750" s="8"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="A751" s="4"/>
+      <c r="B751" s="4"/>
+      <c r="C751" s="4"/>
+      <c r="D751" s="4"/>
+      <c r="F751" s="8"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="A752" s="4"/>
+      <c r="B752" s="4"/>
+      <c r="C752" s="4"/>
+      <c r="D752" s="4"/>
+      <c r="F752" s="8"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="A753" s="4"/>
+      <c r="B753" s="4"/>
+      <c r="C753" s="4"/>
+      <c r="D753" s="4"/>
+      <c r="F753" s="8"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="A754" s="4"/>
+      <c r="B754" s="4"/>
+      <c r="C754" s="4"/>
+      <c r="D754" s="4"/>
+      <c r="F754" s="8"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="A755" s="4"/>
+      <c r="B755" s="4"/>
+      <c r="C755" s="4"/>
+      <c r="D755" s="4"/>
+      <c r="F755" s="8"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="A756" s="4"/>
+      <c r="B756" s="4"/>
+      <c r="C756" s="4"/>
+      <c r="D756" s="4"/>
+      <c r="F756" s="8"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="A757" s="4"/>
+      <c r="B757" s="4"/>
+      <c r="C757" s="4"/>
+      <c r="D757" s="4"/>
+      <c r="F757" s="8"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="A758" s="4"/>
+      <c r="B758" s="4"/>
+      <c r="C758" s="4"/>
+      <c r="D758" s="4"/>
+      <c r="F758" s="8"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="A759" s="4"/>
+      <c r="B759" s="4"/>
+      <c r="C759" s="4"/>
+      <c r="D759" s="4"/>
+      <c r="F759" s="8"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="A760" s="4"/>
+      <c r="B760" s="4"/>
+      <c r="C760" s="4"/>
+      <c r="D760" s="4"/>
+      <c r="F760" s="8"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="A761" s="4"/>
+      <c r="B761" s="4"/>
+      <c r="C761" s="4"/>
+      <c r="D761" s="4"/>
+      <c r="F761" s="8"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="A762" s="4"/>
+      <c r="B762" s="4"/>
+      <c r="C762" s="4"/>
+      <c r="D762" s="4"/>
+      <c r="F762" s="8"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="A763" s="4"/>
+      <c r="B763" s="4"/>
+      <c r="C763" s="4"/>
+      <c r="D763" s="4"/>
+      <c r="F763" s="8"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="A764" s="4"/>
+      <c r="B764" s="4"/>
+      <c r="C764" s="4"/>
+      <c r="D764" s="4"/>
+      <c r="F764" s="8"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="A765" s="4"/>
+      <c r="B765" s="4"/>
+      <c r="C765" s="4"/>
+      <c r="D765" s="4"/>
+      <c r="F765" s="8"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="A766" s="4"/>
+      <c r="B766" s="4"/>
+      <c r="C766" s="4"/>
+      <c r="D766" s="4"/>
+      <c r="F766" s="8"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="A767" s="4"/>
+      <c r="B767" s="4"/>
+      <c r="C767" s="4"/>
+      <c r="D767" s="4"/>
+      <c r="F767" s="8"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="A768" s="4"/>
+      <c r="B768" s="4"/>
+      <c r="C768" s="4"/>
+      <c r="D768" s="4"/>
+      <c r="F768" s="8"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="A769" s="4"/>
+      <c r="B769" s="4"/>
+      <c r="C769" s="4"/>
+      <c r="D769" s="4"/>
+      <c r="F769" s="8"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="A770" s="4"/>
+      <c r="B770" s="4"/>
+      <c r="C770" s="4"/>
+      <c r="D770" s="4"/>
+      <c r="F770" s="8"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="A771" s="4"/>
+      <c r="B771" s="4"/>
+      <c r="C771" s="4"/>
+      <c r="D771" s="4"/>
+      <c r="F771" s="8"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="A772" s="4"/>
+      <c r="B772" s="4"/>
+      <c r="C772" s="4"/>
+      <c r="D772" s="4"/>
+      <c r="F772" s="8"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="A773" s="4"/>
+      <c r="B773" s="4"/>
+      <c r="C773" s="4"/>
+      <c r="D773" s="4"/>
+      <c r="F773" s="8"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="A774" s="4"/>
+      <c r="B774" s="4"/>
+      <c r="C774" s="4"/>
+      <c r="D774" s="4"/>
+      <c r="F774" s="8"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="A775" s="4"/>
+      <c r="B775" s="4"/>
+      <c r="C775" s="4"/>
+      <c r="D775" s="4"/>
+      <c r="F775" s="8"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="A776" s="4"/>
+      <c r="B776" s="4"/>
+      <c r="C776" s="4"/>
+      <c r="D776" s="4"/>
+      <c r="F776" s="8"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="A777" s="4"/>
+      <c r="B777" s="4"/>
+      <c r="C777" s="4"/>
+      <c r="D777" s="4"/>
+      <c r="F777" s="8"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="A778" s="4"/>
+      <c r="B778" s="4"/>
+      <c r="C778" s="4"/>
+      <c r="D778" s="4"/>
+      <c r="F778" s="8"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="A779" s="4"/>
+      <c r="B779" s="4"/>
+      <c r="C779" s="4"/>
+      <c r="D779" s="4"/>
+      <c r="F779" s="8"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="A780" s="4"/>
+      <c r="B780" s="4"/>
+      <c r="C780" s="4"/>
+      <c r="D780" s="4"/>
+      <c r="F780" s="8"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="A781" s="4"/>
+      <c r="B781" s="4"/>
+      <c r="C781" s="4"/>
+      <c r="D781" s="4"/>
+      <c r="F781" s="8"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="A782" s="4"/>
+      <c r="B782" s="4"/>
+      <c r="C782" s="4"/>
+      <c r="D782" s="4"/>
+      <c r="F782" s="8"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="A783" s="4"/>
+      <c r="B783" s="4"/>
+      <c r="C783" s="4"/>
+      <c r="D783" s="4"/>
+      <c r="F783" s="8"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="A784" s="4"/>
+      <c r="B784" s="4"/>
+      <c r="C784" s="4"/>
+      <c r="D784" s="4"/>
+      <c r="F784" s="8"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="A785" s="4"/>
+      <c r="B785" s="4"/>
+      <c r="C785" s="4"/>
+      <c r="D785" s="4"/>
+      <c r="F785" s="8"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="A786" s="4"/>
+      <c r="B786" s="4"/>
+      <c r="C786" s="4"/>
+      <c r="D786" s="4"/>
+      <c r="F786" s="8"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="A787" s="4"/>
+      <c r="B787" s="4"/>
+      <c r="C787" s="4"/>
+      <c r="D787" s="4"/>
+      <c r="F787" s="8"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="A788" s="4"/>
+      <c r="B788" s="4"/>
+      <c r="C788" s="4"/>
+      <c r="D788" s="4"/>
+      <c r="F788" s="8"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="A789" s="4"/>
+      <c r="B789" s="4"/>
+      <c r="C789" s="4"/>
+      <c r="D789" s="4"/>
+      <c r="F789" s="8"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="A790" s="4"/>
+      <c r="B790" s="4"/>
+      <c r="C790" s="4"/>
+      <c r="D790" s="4"/>
+      <c r="F790" s="8"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="A791" s="4"/>
+      <c r="B791" s="4"/>
+      <c r="C791" s="4"/>
+      <c r="D791" s="4"/>
+      <c r="F791" s="8"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="A792" s="4"/>
+      <c r="B792" s="4"/>
+      <c r="C792" s="4"/>
+      <c r="D792" s="4"/>
+      <c r="F792" s="8"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="A793" s="4"/>
+      <c r="B793" s="4"/>
+      <c r="C793" s="4"/>
+      <c r="D793" s="4"/>
+      <c r="F793" s="8"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="A794" s="4"/>
+      <c r="B794" s="4"/>
+      <c r="C794" s="4"/>
+      <c r="D794" s="4"/>
+      <c r="F794" s="8"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="A795" s="4"/>
+      <c r="B795" s="4"/>
+      <c r="C795" s="4"/>
+      <c r="D795" s="4"/>
+      <c r="F795" s="8"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="A796" s="4"/>
+      <c r="B796" s="4"/>
+      <c r="C796" s="4"/>
+      <c r="D796" s="4"/>
+      <c r="F796" s="8"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="A797" s="4"/>
+      <c r="B797" s="4"/>
+      <c r="C797" s="4"/>
+      <c r="D797" s="4"/>
+      <c r="F797" s="8"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="A798" s="4"/>
+      <c r="B798" s="4"/>
+      <c r="C798" s="4"/>
+      <c r="D798" s="4"/>
+      <c r="F798" s="8"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="A799" s="4"/>
+      <c r="B799" s="4"/>
+      <c r="C799" s="4"/>
+      <c r="D799" s="4"/>
+      <c r="F799" s="8"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="A800" s="4"/>
+      <c r="B800" s="4"/>
+      <c r="C800" s="4"/>
+      <c r="D800" s="4"/>
+      <c r="F800" s="8"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="A801" s="4"/>
+      <c r="B801" s="4"/>
+      <c r="C801" s="4"/>
+      <c r="D801" s="4"/>
+      <c r="F801" s="8"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="A802" s="4"/>
+      <c r="B802" s="4"/>
+      <c r="C802" s="4"/>
+      <c r="D802" s="4"/>
+      <c r="F802" s="8"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="A803" s="4"/>
+      <c r="B803" s="4"/>
+      <c r="C803" s="4"/>
+      <c r="D803" s="4"/>
+      <c r="F803" s="8"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="A804" s="4"/>
+      <c r="B804" s="4"/>
+      <c r="C804" s="4"/>
+      <c r="D804" s="4"/>
+      <c r="F804" s="8"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="A805" s="4"/>
+      <c r="B805" s="4"/>
+      <c r="C805" s="4"/>
+      <c r="D805" s="4"/>
+      <c r="F805" s="8"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="A806" s="4"/>
+      <c r="B806" s="4"/>
+      <c r="C806" s="4"/>
+      <c r="D806" s="4"/>
+      <c r="F806" s="8"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="A807" s="4"/>
+      <c r="B807" s="4"/>
+      <c r="C807" s="4"/>
+      <c r="D807" s="4"/>
+      <c r="F807" s="8"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="A808" s="4"/>
+      <c r="B808" s="4"/>
+      <c r="C808" s="4"/>
+      <c r="D808" s="4"/>
+      <c r="F808" s="8"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="A809" s="4"/>
+      <c r="B809" s="4"/>
+      <c r="C809" s="4"/>
+      <c r="D809" s="4"/>
+      <c r="F809" s="8"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="A810" s="4"/>
+      <c r="B810" s="4"/>
+      <c r="C810" s="4"/>
+      <c r="D810" s="4"/>
+      <c r="F810" s="8"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="A811" s="4"/>
+      <c r="B811" s="4"/>
+      <c r="C811" s="4"/>
+      <c r="D811" s="4"/>
+      <c r="F811" s="8"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="A812" s="4"/>
+      <c r="B812" s="4"/>
+      <c r="C812" s="4"/>
+      <c r="D812" s="4"/>
+      <c r="F812" s="8"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="A813" s="4"/>
+      <c r="B813" s="4"/>
+      <c r="C813" s="4"/>
+      <c r="D813" s="4"/>
+      <c r="F813" s="8"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="A814" s="4"/>
+      <c r="B814" s="4"/>
+      <c r="C814" s="4"/>
+      <c r="D814" s="4"/>
+      <c r="F814" s="8"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="A815" s="4"/>
+      <c r="B815" s="4"/>
+      <c r="C815" s="4"/>
+      <c r="D815" s="4"/>
+      <c r="F815" s="8"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="A816" s="4"/>
+      <c r="B816" s="4"/>
+      <c r="C816" s="4"/>
+      <c r="D816" s="4"/>
+      <c r="F816" s="8"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="A817" s="4"/>
+      <c r="B817" s="4"/>
+      <c r="C817" s="4"/>
+      <c r="D817" s="4"/>
+      <c r="F817" s="8"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="A818" s="4"/>
+      <c r="B818" s="4"/>
+      <c r="C818" s="4"/>
+      <c r="D818" s="4"/>
+      <c r="F818" s="8"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="A819" s="4"/>
+      <c r="B819" s="4"/>
+      <c r="C819" s="4"/>
+      <c r="D819" s="4"/>
+      <c r="F819" s="8"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="A820" s="4"/>
+      <c r="B820" s="4"/>
+      <c r="C820" s="4"/>
+      <c r="D820" s="4"/>
+      <c r="F820" s="8"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="A821" s="4"/>
+      <c r="B821" s="4"/>
+      <c r="C821" s="4"/>
+      <c r="D821" s="4"/>
+      <c r="F821" s="8"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="A822" s="4"/>
+      <c r="B822" s="4"/>
+      <c r="C822" s="4"/>
+      <c r="D822" s="4"/>
+      <c r="F822" s="8"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="A823" s="4"/>
+      <c r="B823" s="4"/>
+      <c r="C823" s="4"/>
+      <c r="D823" s="4"/>
+      <c r="F823" s="8"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="A824" s="4"/>
+      <c r="B824" s="4"/>
+      <c r="C824" s="4"/>
+      <c r="D824" s="4"/>
+      <c r="F824" s="8"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="A825" s="4"/>
+      <c r="B825" s="4"/>
+      <c r="C825" s="4"/>
+      <c r="D825" s="4"/>
+      <c r="F825" s="8"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="A826" s="4"/>
+      <c r="B826" s="4"/>
+      <c r="C826" s="4"/>
+      <c r="D826" s="4"/>
+      <c r="F826" s="8"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="A827" s="4"/>
+      <c r="B827" s="4"/>
+      <c r="C827" s="4"/>
+      <c r="D827" s="4"/>
+      <c r="F827" s="8"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="A828" s="4"/>
+      <c r="B828" s="4"/>
+      <c r="C828" s="4"/>
+      <c r="D828" s="4"/>
+      <c r="F828" s="8"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="A829" s="4"/>
+      <c r="B829" s="4"/>
+      <c r="C829" s="4"/>
+      <c r="D829" s="4"/>
+      <c r="F829" s="8"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="A830" s="4"/>
+      <c r="B830" s="4"/>
+      <c r="C830" s="4"/>
+      <c r="D830" s="4"/>
+      <c r="F830" s="8"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="A831" s="4"/>
+      <c r="B831" s="4"/>
+      <c r="C831" s="4"/>
+      <c r="D831" s="4"/>
+      <c r="F831" s="8"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="A832" s="4"/>
+      <c r="B832" s="4"/>
+      <c r="C832" s="4"/>
+      <c r="D832" s="4"/>
+      <c r="F832" s="8"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="A833" s="4"/>
+      <c r="B833" s="4"/>
+      <c r="C833" s="4"/>
+      <c r="D833" s="4"/>
+      <c r="F833" s="8"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="A834" s="4"/>
+      <c r="B834" s="4"/>
+      <c r="C834" s="4"/>
+      <c r="D834" s="4"/>
+      <c r="F834" s="8"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="A835" s="4"/>
+      <c r="B835" s="4"/>
+      <c r="C835" s="4"/>
+      <c r="D835" s="4"/>
+      <c r="F835" s="8"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="A836" s="4"/>
+      <c r="B836" s="4"/>
+      <c r="C836" s="4"/>
+      <c r="D836" s="4"/>
+      <c r="F836" s="8"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="A837" s="4"/>
+      <c r="B837" s="4"/>
+      <c r="C837" s="4"/>
+      <c r="D837" s="4"/>
+      <c r="F837" s="8"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="A838" s="4"/>
+      <c r="B838" s="4"/>
+      <c r="C838" s="4"/>
+      <c r="D838" s="4"/>
+      <c r="F838" s="8"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="A839" s="4"/>
+      <c r="B839" s="4"/>
+      <c r="C839" s="4"/>
+      <c r="D839" s="4"/>
+      <c r="F839" s="8"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="A840" s="4"/>
+      <c r="B840" s="4"/>
+      <c r="C840" s="4"/>
+      <c r="D840" s="4"/>
+      <c r="F840" s="8"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="A841" s="4"/>
+      <c r="B841" s="4"/>
+      <c r="C841" s="4"/>
+      <c r="D841" s="4"/>
+      <c r="F841" s="8"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="A842" s="4"/>
+      <c r="B842" s="4"/>
+      <c r="C842" s="4"/>
+      <c r="D842" s="4"/>
+      <c r="F842" s="8"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="A843" s="4"/>
+      <c r="B843" s="4"/>
+      <c r="C843" s="4"/>
+      <c r="D843" s="4"/>
+      <c r="F843" s="8"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="A844" s="4"/>
+      <c r="B844" s="4"/>
+      <c r="C844" s="4"/>
+      <c r="D844" s="4"/>
+      <c r="F844" s="8"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="A845" s="4"/>
+      <c r="B845" s="4"/>
+      <c r="C845" s="4"/>
+      <c r="D845" s="4"/>
+      <c r="F845" s="8"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="A846" s="4"/>
+      <c r="B846" s="4"/>
+      <c r="C846" s="4"/>
+      <c r="D846" s="4"/>
+      <c r="F846" s="8"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="A847" s="4"/>
+      <c r="B847" s="4"/>
+      <c r="C847" s="4"/>
+      <c r="D847" s="4"/>
+      <c r="F847" s="8"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="A848" s="4"/>
+      <c r="B848" s="4"/>
+      <c r="C848" s="4"/>
+      <c r="D848" s="4"/>
+      <c r="F848" s="8"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="A849" s="4"/>
+      <c r="B849" s="4"/>
+      <c r="C849" s="4"/>
+      <c r="D849" s="4"/>
+      <c r="F849" s="8"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="A850" s="4"/>
+      <c r="B850" s="4"/>
+      <c r="C850" s="4"/>
+      <c r="D850" s="4"/>
+      <c r="F850" s="8"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="A851" s="4"/>
+      <c r="B851" s="4"/>
+      <c r="C851" s="4"/>
+      <c r="D851" s="4"/>
+      <c r="F851" s="8"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="A852" s="4"/>
+      <c r="B852" s="4"/>
+      <c r="C852" s="4"/>
+      <c r="D852" s="4"/>
+      <c r="F852" s="8"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="A853" s="4"/>
+      <c r="B853" s="4"/>
+      <c r="C853" s="4"/>
+      <c r="D853" s="4"/>
+      <c r="F853" s="8"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="A854" s="4"/>
+      <c r="B854" s="4"/>
+      <c r="C854" s="4"/>
+      <c r="D854" s="4"/>
+      <c r="F854" s="8"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="A855" s="4"/>
+      <c r="B855" s="4"/>
+      <c r="C855" s="4"/>
+      <c r="D855" s="4"/>
+      <c r="F855" s="8"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="A856" s="4"/>
+      <c r="B856" s="4"/>
+      <c r="C856" s="4"/>
+      <c r="D856" s="4"/>
+      <c r="F856" s="8"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="A857" s="4"/>
+      <c r="B857" s="4"/>
+      <c r="C857" s="4"/>
+      <c r="D857" s="4"/>
+      <c r="F857" s="8"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="A858" s="4"/>
+      <c r="B858" s="4"/>
+      <c r="C858" s="4"/>
+      <c r="D858" s="4"/>
+      <c r="F858" s="8"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="A859" s="4"/>
+      <c r="B859" s="4"/>
+      <c r="C859" s="4"/>
+      <c r="D859" s="4"/>
+      <c r="F859" s="8"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="A860" s="4"/>
+      <c r="B860" s="4"/>
+      <c r="C860" s="4"/>
+      <c r="D860" s="4"/>
+      <c r="F860" s="8"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="A861" s="4"/>
+      <c r="B861" s="4"/>
+      <c r="C861" s="4"/>
+      <c r="D861" s="4"/>
+      <c r="F861" s="8"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="A862" s="4"/>
+      <c r="B862" s="4"/>
+      <c r="C862" s="4"/>
+      <c r="D862" s="4"/>
+      <c r="F862" s="8"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="A863" s="4"/>
+      <c r="B863" s="4"/>
+      <c r="C863" s="4"/>
+      <c r="D863" s="4"/>
+      <c r="F863" s="8"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="A864" s="4"/>
+      <c r="B864" s="4"/>
+      <c r="C864" s="4"/>
+      <c r="D864" s="4"/>
+      <c r="F864" s="8"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="A865" s="4"/>
+      <c r="B865" s="4"/>
+      <c r="C865" s="4"/>
+      <c r="D865" s="4"/>
+      <c r="F865" s="8"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="A866" s="4"/>
+      <c r="B866" s="4"/>
+      <c r="C866" s="4"/>
+      <c r="D866" s="4"/>
+      <c r="F866" s="8"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="A867" s="4"/>
+      <c r="B867" s="4"/>
+      <c r="C867" s="4"/>
+      <c r="D867" s="4"/>
+      <c r="F867" s="8"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="A868" s="4"/>
+      <c r="B868" s="4"/>
+      <c r="C868" s="4"/>
+      <c r="D868" s="4"/>
+      <c r="F868" s="8"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="A869" s="4"/>
+      <c r="B869" s="4"/>
+      <c r="C869" s="4"/>
+      <c r="D869" s="4"/>
+      <c r="F869" s="8"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="A870" s="4"/>
+      <c r="B870" s="4"/>
+      <c r="C870" s="4"/>
+      <c r="D870" s="4"/>
+      <c r="F870" s="8"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="A871" s="4"/>
+      <c r="B871" s="4"/>
+      <c r="C871" s="4"/>
+      <c r="D871" s="4"/>
+      <c r="F871" s="8"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="A872" s="4"/>
+      <c r="B872" s="4"/>
+      <c r="C872" s="4"/>
+      <c r="D872" s="4"/>
+      <c r="F872" s="8"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="A873" s="4"/>
+      <c r="B873" s="4"/>
+      <c r="C873" s="4"/>
+      <c r="D873" s="4"/>
+      <c r="F873" s="8"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="A874" s="4"/>
+      <c r="B874" s="4"/>
+      <c r="C874" s="4"/>
+      <c r="D874" s="4"/>
+      <c r="F874" s="8"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="A875" s="4"/>
+      <c r="B875" s="4"/>
+      <c r="C875" s="4"/>
+      <c r="D875" s="4"/>
+      <c r="F875" s="8"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="A876" s="4"/>
+      <c r="B876" s="4"/>
+      <c r="C876" s="4"/>
+      <c r="D876" s="4"/>
+      <c r="F876" s="8"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="A877" s="4"/>
+      <c r="B877" s="4"/>
+      <c r="C877" s="4"/>
+      <c r="D877" s="4"/>
+      <c r="F877" s="8"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="A878" s="4"/>
+      <c r="B878" s="4"/>
+      <c r="C878" s="4"/>
+      <c r="D878" s="4"/>
+      <c r="F878" s="8"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="A879" s="4"/>
+      <c r="B879" s="4"/>
+      <c r="C879" s="4"/>
+      <c r="D879" s="4"/>
+      <c r="F879" s="8"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="A880" s="4"/>
+      <c r="B880" s="4"/>
+      <c r="C880" s="4"/>
+      <c r="D880" s="4"/>
+      <c r="F880" s="8"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="A881" s="4"/>
+      <c r="B881" s="4"/>
+      <c r="C881" s="4"/>
+      <c r="D881" s="4"/>
+      <c r="F881" s="8"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="A882" s="4"/>
+      <c r="B882" s="4"/>
+      <c r="C882" s="4"/>
+      <c r="D882" s="4"/>
+      <c r="F882" s="8"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="A883" s="4"/>
+      <c r="B883" s="4"/>
+      <c r="C883" s="4"/>
+      <c r="D883" s="4"/>
+      <c r="F883" s="8"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="A884" s="4"/>
+      <c r="B884" s="4"/>
+      <c r="C884" s="4"/>
+      <c r="D884" s="4"/>
+      <c r="F884" s="8"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="A885" s="4"/>
+      <c r="B885" s="4"/>
+      <c r="C885" s="4"/>
+      <c r="D885" s="4"/>
+      <c r="F885" s="8"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="A886" s="4"/>
+      <c r="B886" s="4"/>
+      <c r="C886" s="4"/>
+      <c r="D886" s="4"/>
+      <c r="F886" s="8"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="A887" s="4"/>
+      <c r="B887" s="4"/>
+      <c r="C887" s="4"/>
+      <c r="D887" s="4"/>
+      <c r="F887" s="8"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="A888" s="4"/>
+      <c r="B888" s="4"/>
+      <c r="C888" s="4"/>
+      <c r="D888" s="4"/>
+      <c r="F888" s="8"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="A889" s="4"/>
+      <c r="B889" s="4"/>
+      <c r="C889" s="4"/>
+      <c r="D889" s="4"/>
+      <c r="F889" s="8"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="A890" s="4"/>
+      <c r="B890" s="4"/>
+      <c r="C890" s="4"/>
+      <c r="D890" s="4"/>
+      <c r="F890" s="8"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="A891" s="4"/>
+      <c r="B891" s="4"/>
+      <c r="C891" s="4"/>
+      <c r="D891" s="4"/>
+      <c r="F891" s="8"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="A892" s="4"/>
+      <c r="B892" s="4"/>
+      <c r="C892" s="4"/>
+      <c r="D892" s="4"/>
+      <c r="F892" s="8"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="A893" s="4"/>
+      <c r="B893" s="4"/>
+      <c r="C893" s="4"/>
+      <c r="D893" s="4"/>
+      <c r="F893" s="8"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="A894" s="4"/>
+      <c r="B894" s="4"/>
+      <c r="C894" s="4"/>
+      <c r="D894" s="4"/>
+      <c r="F894" s="8"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="A895" s="4"/>
+      <c r="B895" s="4"/>
+      <c r="C895" s="4"/>
+      <c r="D895" s="4"/>
+      <c r="F895" s="8"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="A896" s="4"/>
+      <c r="B896" s="4"/>
+      <c r="C896" s="4"/>
+      <c r="D896" s="4"/>
+      <c r="F896" s="8"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="A897" s="4"/>
+      <c r="B897" s="4"/>
+      <c r="C897" s="4"/>
+      <c r="D897" s="4"/>
+      <c r="F897" s="8"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="A898" s="4"/>
+      <c r="B898" s="4"/>
+      <c r="C898" s="4"/>
+      <c r="D898" s="4"/>
+      <c r="F898" s="8"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="A899" s="4"/>
+      <c r="B899" s="4"/>
+      <c r="C899" s="4"/>
+      <c r="D899" s="4"/>
+      <c r="F899" s="8"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="A900" s="4"/>
+      <c r="B900" s="4"/>
+      <c r="C900" s="4"/>
+      <c r="D900" s="4"/>
+      <c r="F900" s="8"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="A901" s="4"/>
+      <c r="B901" s="4"/>
+      <c r="C901" s="4"/>
+      <c r="D901" s="4"/>
+      <c r="F901" s="8"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="A902" s="4"/>
+      <c r="B902" s="4"/>
+      <c r="C902" s="4"/>
+      <c r="D902" s="4"/>
+      <c r="F902" s="8"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="A903" s="4"/>
+      <c r="B903" s="4"/>
+      <c r="C903" s="4"/>
+      <c r="D903" s="4"/>
+      <c r="F903" s="8"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="A904" s="4"/>
+      <c r="B904" s="4"/>
+      <c r="C904" s="4"/>
+      <c r="D904" s="4"/>
+      <c r="F904" s="8"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="A905" s="4"/>
+      <c r="B905" s="4"/>
+      <c r="C905" s="4"/>
+      <c r="D905" s="4"/>
+      <c r="F905" s="8"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="A906" s="4"/>
+      <c r="B906" s="4"/>
+      <c r="C906" s="4"/>
+      <c r="D906" s="4"/>
+      <c r="F906" s="8"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="A907" s="4"/>
+      <c r="B907" s="4"/>
+      <c r="C907" s="4"/>
+      <c r="D907" s="4"/>
+      <c r="F907" s="8"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="A908" s="4"/>
+      <c r="B908" s="4"/>
+      <c r="C908" s="4"/>
+      <c r="D908" s="4"/>
+      <c r="F908" s="8"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="A909" s="4"/>
+      <c r="B909" s="4"/>
+      <c r="C909" s="4"/>
+      <c r="D909" s="4"/>
+      <c r="F909" s="8"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="A910" s="4"/>
+      <c r="B910" s="4"/>
+      <c r="C910" s="4"/>
+      <c r="D910" s="4"/>
+      <c r="F910" s="8"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="A911" s="4"/>
+      <c r="B911" s="4"/>
+      <c r="C911" s="4"/>
+      <c r="D911" s="4"/>
+      <c r="F911" s="8"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="A912" s="4"/>
+      <c r="B912" s="4"/>
+      <c r="C912" s="4"/>
+      <c r="D912" s="4"/>
+      <c r="F912" s="8"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="A913" s="4"/>
+      <c r="B913" s="4"/>
+      <c r="C913" s="4"/>
+      <c r="D913" s="4"/>
+      <c r="F913" s="8"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="A914" s="4"/>
+      <c r="B914" s="4"/>
+      <c r="C914" s="4"/>
+      <c r="D914" s="4"/>
+      <c r="F914" s="8"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="A915" s="4"/>
+      <c r="B915" s="4"/>
+      <c r="C915" s="4"/>
+      <c r="D915" s="4"/>
+      <c r="F915" s="8"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="A916" s="4"/>
+      <c r="B916" s="4"/>
+      <c r="C916" s="4"/>
+      <c r="D916" s="4"/>
+      <c r="F916" s="8"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="A917" s="4"/>
+      <c r="B917" s="4"/>
+      <c r="C917" s="4"/>
+      <c r="D917" s="4"/>
+      <c r="F917" s="8"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="A918" s="4"/>
+      <c r="B918" s="4"/>
+      <c r="C918" s="4"/>
+      <c r="D918" s="4"/>
+      <c r="F918" s="8"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="A919" s="4"/>
+      <c r="B919" s="4"/>
+      <c r="C919" s="4"/>
+      <c r="D919" s="4"/>
+      <c r="F919" s="8"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="A920" s="4"/>
+      <c r="B920" s="4"/>
+      <c r="C920" s="4"/>
+      <c r="D920" s="4"/>
+      <c r="F920" s="8"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="A921" s="4"/>
+      <c r="B921" s="4"/>
+      <c r="C921" s="4"/>
+      <c r="D921" s="4"/>
+      <c r="F921" s="8"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="A922" s="4"/>
+      <c r="B922" s="4"/>
+      <c r="C922" s="4"/>
+      <c r="D922" s="4"/>
+      <c r="F922" s="8"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="A923" s="4"/>
+      <c r="B923" s="4"/>
+      <c r="C923" s="4"/>
+      <c r="D923" s="4"/>
+      <c r="F923" s="8"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="A924" s="4"/>
+      <c r="B924" s="4"/>
+      <c r="C924" s="4"/>
+      <c r="D924" s="4"/>
+      <c r="F924" s="8"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="A925" s="4"/>
+      <c r="B925" s="4"/>
+      <c r="C925" s="4"/>
+      <c r="D925" s="4"/>
+      <c r="F925" s="8"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="A926" s="4"/>
+      <c r="B926" s="4"/>
+      <c r="C926" s="4"/>
+      <c r="D926" s="4"/>
+      <c r="F926" s="8"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="A927" s="4"/>
+      <c r="B927" s="4"/>
+      <c r="C927" s="4"/>
+      <c r="D927" s="4"/>
+      <c r="F927" s="8"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="A928" s="4"/>
+      <c r="B928" s="4"/>
+      <c r="C928" s="4"/>
+      <c r="D928" s="4"/>
+      <c r="F928" s="8"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="A929" s="4"/>
+      <c r="B929" s="4"/>
+      <c r="C929" s="4"/>
+      <c r="D929" s="4"/>
+      <c r="F929" s="8"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="A930" s="4"/>
+      <c r="B930" s="4"/>
+      <c r="C930" s="4"/>
+      <c r="D930" s="4"/>
+      <c r="F930" s="8"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="A931" s="4"/>
+      <c r="B931" s="4"/>
+      <c r="C931" s="4"/>
+      <c r="D931" s="4"/>
+      <c r="F931" s="8"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="A932" s="4"/>
+      <c r="B932" s="4"/>
+      <c r="C932" s="4"/>
+      <c r="D932" s="4"/>
+      <c r="F932" s="8"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="A933" s="4"/>
+      <c r="B933" s="4"/>
+      <c r="C933" s="4"/>
+      <c r="D933" s="4"/>
+      <c r="F933" s="8"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="A934" s="4"/>
+      <c r="B934" s="4"/>
+      <c r="C934" s="4"/>
+      <c r="D934" s="4"/>
+      <c r="F934" s="8"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="A935" s="4"/>
+      <c r="B935" s="4"/>
+      <c r="C935" s="4"/>
+      <c r="D935" s="4"/>
+      <c r="F935" s="8"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="A936" s="4"/>
+      <c r="B936" s="4"/>
+      <c r="C936" s="4"/>
+      <c r="D936" s="4"/>
+      <c r="F936" s="8"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="A937" s="4"/>
+      <c r="B937" s="4"/>
+      <c r="C937" s="4"/>
+      <c r="D937" s="4"/>
+      <c r="F937" s="8"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="A938" s="4"/>
+      <c r="B938" s="4"/>
+      <c r="C938" s="4"/>
+      <c r="D938" s="4"/>
+      <c r="F938" s="8"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="A939" s="4"/>
+      <c r="B939" s="4"/>
+      <c r="C939" s="4"/>
+      <c r="D939" s="4"/>
+      <c r="F939" s="8"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="A940" s="4"/>
+      <c r="B940" s="4"/>
+      <c r="C940" s="4"/>
+      <c r="D940" s="4"/>
+      <c r="F940" s="8"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="A941" s="4"/>
+      <c r="B941" s="4"/>
+      <c r="C941" s="4"/>
+      <c r="D941" s="4"/>
+      <c r="F941" s="8"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="A942" s="4"/>
+      <c r="B942" s="4"/>
+      <c r="C942" s="4"/>
+      <c r="D942" s="4"/>
+      <c r="F942" s="8"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="A943" s="4"/>
+      <c r="B943" s="4"/>
+      <c r="C943" s="4"/>
+      <c r="D943" s="4"/>
+      <c r="F943" s="8"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="A944" s="4"/>
+      <c r="B944" s="4"/>
+      <c r="C944" s="4"/>
+      <c r="D944" s="4"/>
+      <c r="F944" s="8"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="A945" s="4"/>
+      <c r="B945" s="4"/>
+      <c r="C945" s="4"/>
+      <c r="D945" s="4"/>
+      <c r="F945" s="8"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="A946" s="4"/>
+      <c r="B946" s="4"/>
+      <c r="C946" s="4"/>
+      <c r="D946" s="4"/>
+      <c r="F946" s="8"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="A947" s="4"/>
+      <c r="B947" s="4"/>
+      <c r="C947" s="4"/>
+      <c r="D947" s="4"/>
+      <c r="F947" s="8"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="A948" s="4"/>
+      <c r="B948" s="4"/>
+      <c r="C948" s="4"/>
+      <c r="D948" s="4"/>
+      <c r="F948" s="8"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="A949" s="4"/>
+      <c r="B949" s="4"/>
+      <c r="C949" s="4"/>
+      <c r="D949" s="4"/>
+      <c r="F949" s="8"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="A950" s="4"/>
+      <c r="B950" s="4"/>
+      <c r="C950" s="4"/>
+      <c r="D950" s="4"/>
+      <c r="F950" s="8"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="A951" s="4"/>
+      <c r="B951" s="4"/>
+      <c r="C951" s="4"/>
+      <c r="D951" s="4"/>
+      <c r="F951" s="8"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="A952" s="4"/>
+      <c r="B952" s="4"/>
+      <c r="C952" s="4"/>
+      <c r="D952" s="4"/>
+      <c r="F952" s="8"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="A953" s="4"/>
+      <c r="B953" s="4"/>
+      <c r="C953" s="4"/>
+      <c r="D953" s="4"/>
+      <c r="F953" s="8"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="A954" s="4"/>
+      <c r="B954" s="4"/>
+      <c r="C954" s="4"/>
+      <c r="D954" s="4"/>
+      <c r="F954" s="8"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="A955" s="4"/>
+      <c r="B955" s="4"/>
+      <c r="C955" s="4"/>
+      <c r="D955" s="4"/>
+      <c r="F955" s="8"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="A956" s="4"/>
+      <c r="B956" s="4"/>
+      <c r="C956" s="4"/>
+      <c r="D956" s="4"/>
+      <c r="F956" s="8"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="A957" s="4"/>
+      <c r="B957" s="4"/>
+      <c r="C957" s="4"/>
+      <c r="D957" s="4"/>
+      <c r="F957" s="8"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="A958" s="4"/>
+      <c r="B958" s="4"/>
+      <c r="C958" s="4"/>
+      <c r="D958" s="4"/>
+      <c r="F958" s="8"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="A959" s="4"/>
+      <c r="B959" s="4"/>
+      <c r="C959" s="4"/>
+      <c r="D959" s="4"/>
+      <c r="F959" s="8"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="A960" s="4"/>
+      <c r="B960" s="4"/>
+      <c r="C960" s="4"/>
+      <c r="D960" s="4"/>
+      <c r="F960" s="8"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="A961" s="4"/>
+      <c r="B961" s="4"/>
+      <c r="C961" s="4"/>
+      <c r="D961" s="4"/>
+      <c r="F961" s="8"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="A962" s="4"/>
+      <c r="B962" s="4"/>
+      <c r="C962" s="4"/>
+      <c r="D962" s="4"/>
+      <c r="F962" s="8"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="A963" s="4"/>
+      <c r="B963" s="4"/>
+      <c r="C963" s="4"/>
+      <c r="D963" s="4"/>
+      <c r="F963" s="8"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="A964" s="4"/>
+      <c r="B964" s="4"/>
+      <c r="C964" s="4"/>
+      <c r="D964" s="4"/>
+      <c r="F964" s="8"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="A965" s="4"/>
+      <c r="B965" s="4"/>
+      <c r="C965" s="4"/>
+      <c r="D965" s="4"/>
+      <c r="F965" s="8"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="A966" s="4"/>
+      <c r="B966" s="4"/>
+      <c r="C966" s="4"/>
+      <c r="D966" s="4"/>
+      <c r="F966" s="8"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="A967" s="4"/>
+      <c r="B967" s="4"/>
+      <c r="C967" s="4"/>
+      <c r="D967" s="4"/>
+      <c r="F967" s="8"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="A968" s="4"/>
+      <c r="B968" s="4"/>
+      <c r="C968" s="4"/>
+      <c r="D968" s="4"/>
+      <c r="F968" s="8"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="A969" s="4"/>
+      <c r="B969" s="4"/>
+      <c r="C969" s="4"/>
+      <c r="D969" s="4"/>
+      <c r="F969" s="8"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="A970" s="4"/>
+      <c r="B970" s="4"/>
+      <c r="C970" s="4"/>
+      <c r="D970" s="4"/>
+      <c r="F970" s="8"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="A971" s="4"/>
+      <c r="B971" s="4"/>
+      <c r="C971" s="4"/>
+      <c r="D971" s="4"/>
+      <c r="F971" s="8"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="A972" s="4"/>
+      <c r="B972" s="4"/>
+      <c r="C972" s="4"/>
+      <c r="D972" s="4"/>
+      <c r="F972" s="8"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="A973" s="4"/>
+      <c r="B973" s="4"/>
+      <c r="C973" s="4"/>
+      <c r="D973" s="4"/>
+      <c r="F973" s="8"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="A974" s="4"/>
+      <c r="B974" s="4"/>
+      <c r="C974" s="4"/>
+      <c r="D974" s="4"/>
+      <c r="F974" s="8"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="A975" s="4"/>
+      <c r="B975" s="4"/>
+      <c r="C975" s="4"/>
+      <c r="D975" s="4"/>
+      <c r="F975" s="8"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="A976" s="4"/>
+      <c r="B976" s="4"/>
+      <c r="C976" s="4"/>
+      <c r="D976" s="4"/>
+      <c r="F976" s="8"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="A977" s="4"/>
+      <c r="B977" s="4"/>
+      <c r="C977" s="4"/>
+      <c r="D977" s="4"/>
+      <c r="F977" s="8"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="A978" s="4"/>
+      <c r="B978" s="4"/>
+      <c r="C978" s="4"/>
+      <c r="D978" s="4"/>
+      <c r="F978" s="8"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="A979" s="4"/>
+      <c r="B979" s="4"/>
+      <c r="C979" s="4"/>
+      <c r="D979" s="4"/>
+      <c r="F979" s="8"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="A980" s="4"/>
+      <c r="B980" s="4"/>
+      <c r="C980" s="4"/>
+      <c r="D980" s="4"/>
+      <c r="F980" s="8"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="A981" s="4"/>
+      <c r="B981" s="4"/>
+      <c r="C981" s="4"/>
+      <c r="D981" s="4"/>
+      <c r="F981" s="8"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="A982" s="4"/>
+      <c r="B982" s="4"/>
+      <c r="C982" s="4"/>
+      <c r="D982" s="4"/>
+      <c r="F982" s="8"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="A983" s="4"/>
+      <c r="B983" s="4"/>
+      <c r="C983" s="4"/>
+      <c r="D983" s="4"/>
+      <c r="F983" s="8"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="A984" s="4"/>
+      <c r="B984" s="4"/>
+      <c r="C984" s="4"/>
+      <c r="D984" s="4"/>
+      <c r="F984" s="8"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="A985" s="4"/>
+      <c r="B985" s="4"/>
+      <c r="C985" s="4"/>
+      <c r="D985" s="4"/>
+      <c r="F985" s="8"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="A986" s="4"/>
+      <c r="B986" s="4"/>
+      <c r="C986" s="4"/>
+      <c r="D986" s="4"/>
+      <c r="F986" s="8"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="A987" s="4"/>
+      <c r="B987" s="4"/>
+      <c r="C987" s="4"/>
+      <c r="D987" s="4"/>
+      <c r="F987" s="8"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="A988" s="4"/>
+      <c r="B988" s="4"/>
+      <c r="C988" s="4"/>
+      <c r="D988" s="4"/>
+      <c r="F988" s="8"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="A989" s="4"/>
+      <c r="B989" s="4"/>
+      <c r="C989" s="4"/>
+      <c r="D989" s="4"/>
+      <c r="F989" s="8"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="A990" s="4"/>
+      <c r="B990" s="4"/>
+      <c r="C990" s="4"/>
+      <c r="D990" s="4"/>
+      <c r="F990" s="8"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="A991" s="4"/>
+      <c r="B991" s="4"/>
+      <c r="C991" s="4"/>
+      <c r="D991" s="4"/>
+      <c r="F991" s="8"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="A992" s="4"/>
+      <c r="B992" s="4"/>
+      <c r="C992" s="4"/>
+      <c r="D992" s="4"/>
+      <c r="F992" s="8"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="A993" s="4"/>
+      <c r="B993" s="4"/>
+      <c r="C993" s="4"/>
+      <c r="D993" s="4"/>
+      <c r="F993" s="8"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="A994" s="4"/>
+      <c r="B994" s="4"/>
+      <c r="C994" s="4"/>
+      <c r="D994" s="4"/>
+      <c r="F994" s="8"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="A995" s="4"/>
+      <c r="B995" s="4"/>
+      <c r="C995" s="4"/>
+      <c r="D995" s="4"/>
+      <c r="F995" s="8"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="A996" s="4"/>
+      <c r="B996" s="4"/>
+      <c r="C996" s="4"/>
+      <c r="D996" s="4"/>
+      <c r="F996" s="8"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="A997" s="4"/>
+      <c r="B997" s="4"/>
+      <c r="C997" s="4"/>
+      <c r="D997" s="4"/>
+      <c r="F997" s="8"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="A998" s="4"/>
+      <c r="B998" s="4"/>
+      <c r="C998" s="4"/>
+      <c r="D998" s="4"/>
+      <c r="F998" s="8"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="A999" s="4"/>
+      <c r="B999" s="4"/>
+      <c r="C999" s="4"/>
+      <c r="D999" s="4"/>
+      <c r="F999" s="8"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="A1000" s="4"/>
+      <c r="B1000" s="4"/>
+      <c r="C1000" s="4"/>
+      <c r="D1000" s="4"/>
+      <c r="F1000" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>